--- a/data/hotels_by_city/Dallas/Dallas_shard_226.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_226.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>KarthikRamachandran</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>As they say, you get what you pay for. The hotel has been there for sometime and it shows. The reception area is being renovated and is quite dusty. The rooms are basic and as in all ESA hotels, cleaning is once a week. The saving grace is the staff, they are quite friendly and very helpful. Breakfast is just grab and go muffins and coffee. Stay if you have to, but don't expect anything great. Ok hotel. More</t>
   </si>
   <si>
+    <t>Ava D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r532152521-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I really enjoyed my stay I had pool side view which was really nice!  Everyone was sooooo extremely nice to my sister and I.  The room was nice and very clean you don’t find that often.  I was very pleased!!!More</t>
   </si>
   <si>
+    <t>Roanna C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r580829884-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>This hotel was disgusting. It smelled and none of the TV's in the rooms worked. They made a loud noise when you tried to watch them. In our first room the refrigerator made a loud noise along with the TV's so we asked to be moved. The front desk agent was rude when we asked but eventually moved us. The second room wasn't much different. The TV's didn't work and the pull out bed was dirty. At this point it was too late to even leave so we just went to bed.More</t>
   </si>
   <si>
+    <t>sgull242018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r578322450-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Very old rooms were shabby, bathtub was dirty I had to clean the room myself to ensure I had somewhat comfortable stay, they really need to update the rooms....Thank-you I rate your establishment from 1-10 of 4More</t>
   </si>
   <si>
+    <t>mnaile</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r573848088-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>Great staff, very friendly and helpful in making the best out of my stay. Room is very comfortable to the point that I have returned for yet another extended stay. BBQ on the patio was a very nice feature not found at majority of hotels.More</t>
   </si>
   <si>
+    <t>lynelllips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r560214461-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>The Plano, TX location is awesome. The Manager cares about her guests. Armand is a Rep at this location and he is very professional, provides excellent customer service and he also has great hospitality.More</t>
   </si>
   <si>
+    <t>wngreene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r559383801-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>I am staying for an extended stay while working on a business deal in the area.  While I have been here, the staff has been friendly and attentive.  My room is efficient and meets my needs for while I I have been here.  The overall value received for the rate paid is very good.  Due to the pricing, I have saved money compared to getting a corporate apartment.  It is also beneficial because I do not need to lock in an end date or pay beyond the time needed.More</t>
   </si>
   <si>
+    <t>N862PJjulieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r559330517-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>room smelt terrible.  the "free breakfast" was an instant oatmeal pack and cold coffee.  the desk staff was nice but when asked for extra pillow, did not receive it.  room was clean but had no supplies provided.  overall not what is expected.  would not recommendMore</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r557968313-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>This is a real, accurate review. Showed up at 11:30 p.m. for my reservation. Already on the door was a sloppily written sign that said "no vacancies." I didn't realize we were in a 1960s horror movie. Then to top it all off I sat there for 30 minutes while I banged on the door and called the front desk to try to get someones attention. I heard the phone ring for 30 straight minutes from outside and no one came. I eventually had to leave and go to a hotel down the road because no one was ever able to answer the door which is insane. Eventually orbitz was able to get a hold of them and they claimed they were there the whole time, which was a bold face lie. Clearly someone super unprofessional fell asleep at the desk and did not answer my call. I would give this place 0 Stars if I could. Unless you are dying and there is zero other hotels available I would never ever ever recommend this hotelMore</t>
   </si>
   <si>
+    <t>Deborah G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r552804290-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>Room clean on check in, but had to request housekeeping on day 3 of our stay. No cutlery, crockery Etc in the kitchen. We had to specifically request and collect at reception. Staff very helpful and friendly. More</t>
   </si>
   <si>
+    <t>Luchi P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r545620366-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>Staff is great, made our stay very comfortable when wanting something. They acted fast. Will DEFINITELY return again. Will recommend to others. Very understanding when didn’t come exactly at check out.More</t>
   </si>
   <si>
+    <t>590doc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r542837768-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>good in price for long trip.breakfast was nothing but they are clear in this point from the begining  ..there was smell in the room ..small rooms ..perfect location in plano ..friendly customed service .. More</t>
   </si>
   <si>
+    <t>LINDA H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r540836877-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>Sadly, this property is not up to par. The room and hotel in general needs a great deal of TLC. I have stayed in Extended Stay America properties in Colorado and had no problem. This was very disappointing!More</t>
   </si>
   <si>
+    <t>Lynn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r536450432-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -516,6 +558,9 @@
     <t>I drove to town from another state to visit my family. I arrived late in the evening and checked in. After signing the papers I was handed the key to a room on the 4th floor, and only then was informed that the elevator did not work. The lower floors did not have any available rooms. My suitcase was large and very heavy. The male clerk told me ‘it’s an easy trek up the stairs’...it most certainly was not, and he did not offer to help me. I am a petite woman with asthma and struggled to lug the suitcase step by step. I was not offered a discount and the room was $101. for one night. I discussed the issue with the clerk in the morning and she agreed that he should have offered to help me....but once again no offer for a discount. She also informed me the elevator would be out of order for weeks....TOTALLY unacceptable. I would never recommend this hotel to anyone. More</t>
   </si>
   <si>
+    <t>mohaseenemran</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r534376173-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>Fair rate, good staff &amp; has all required things .Provides free breakfast ,wifi too. Only one suggestion : please install drinking water fountain :)Kitchen is der so you can make your own food . overall i had wonderful time hereMore</t>
   </si>
   <si>
+    <t>jma129</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r533463204-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -567,6 +615,9 @@
     <t>My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they...My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they cater to the people treated at hospitals!! In this location, one could see where the handicapped door button was removed!! You're not losing heat or A/C, as there's an anteroom between the doors. Like I said,  I didn't have a great stay,  but Armand saved you from losing my company's business by being exceptional at his job!!More</t>
   </si>
   <si>
+    <t>Tisha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r531111066-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>I have had the pleasure of staying at Extended stay for the last few months due to a work project.  I was hesitant of staying but when I walked in, I was greeted with nothing but kindness.  ARMAND made me feel so special.  He made sure that I was completely satisfied each time that I visited the location.  One time I showed up and Priceline had not sent over my reservation.  I was tired and hungry but Armand saved the day.  I was so frustrated but he turned that around.  Thank you Armand for being the best front desk person I have EVER came into encounter with.  He is GREAT and definitely someone you want to have greet all of your customers.  Keep up the good work Armand.More</t>
   </si>
   <si>
+    <t>GiriBhat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r525016191-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -618,6 +672,9 @@
     <t>We stayed there for a week. Situated in a nice place, grocery shop, restaurants were nearby. They are having nice kitchen. Stay was good. All staffs were nice. Rooms were bit small, that was problem I had.More</t>
   </si>
   <si>
+    <t>Kent H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r524217744-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>I've stayed at this hotel at least 10 times in the last 6 months. Overall, it works fine for me. The layout of the rooms is great, but the countertops, cooktops, refrigerators, and bathrooms are pretty old and a little tired. Good value for the money, though. You can save some money by reserving it through Priceline. Look for a hotel in West Plano.More</t>
   </si>
   <si>
+    <t>that1guyralph</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r520474536-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -669,6 +729,9 @@
     <t>The front desk staff were attentive and very friendly especially Armand anything we asked for he would get he is definitely a casebook example of someone who deserves a raise.  Now comes that but, after the first couple of times my room was not cleaned to my satisfaction, which Armand explained to me that they hired an agency to help out since their regular couldn't handle this many people. So other than that a great stay thanks ArmandMore</t>
   </si>
   <si>
+    <t>rell27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r520372444-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -687,6 +750,9 @@
     <t>Great place to stay. The staff made me feel at home. Armand Wilson is a great representation of what great hotel personel is. Went over and beyond to meet all wishes. I would recommend if your looking for a great quiet place to rest this is the place to come. The bond they made with the staff makes it hard to leave. More</t>
   </si>
   <si>
+    <t>Jay B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r520231295-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -708,6 +774,9 @@
     <t>My experience with the hotel was all pluses. When I first arrived I was greeted by Armand. Armand has great skills with are group and when it was an incident he handle professional! Thanks Armand!!!! Lani was fantastic! It was great to see her greet are group with a smile and a good morning. Always alert, focused, and committed to us.Alfred was very knowledgeable area the Dallas area which is great concierge service. Speaking with him made the Stay because he was my go to guy!Tomasita overnight was amazing!!!! Always busy making sure are Stay was great! I would like to thank them for their time efforts and service....            Joseph BartlettMore</t>
   </si>
   <si>
+    <t>glorilugo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r515689418-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>I cant have big complaints about this hotel. Staff is more than amazing!!!  AReady to help. We booked a studio with a bed and sofa and results small,on a swap they found us a bigger one. Company just need to put some love ....More</t>
   </si>
   <si>
+    <t>HamboneJenkins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r509084326-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>The front desk people were all awesome.  Very friendly and affordable.  Pool was well maintained.  Our room was spacious and pretty clean.  Location is nice and close to the highway and restaurants.  Also near places to shop.  This review is in comparison to other extended stay type places with price taken into consideration.More</t>
   </si>
   <si>
+    <t>564kailah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r505311931-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -780,6 +855,9 @@
     <t>Overall good experience, staff worked with me during my stay. The breakfast wasn't too great. But the price was great and everything was working how it should in the room. The main reason I stayed here was pet friendly. And if I ever bring my dog with me back to this area I will stay again More</t>
   </si>
   <si>
+    <t>jacob c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r504950805-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -804,6 +882,9 @@
     <t>I found myself in a situation where I needed a great room last minute. So I booked this hotel, knowing the quality is always good with Extended Stay hotels. Check in was a breeze with Armand working behind the front desk. He was very professional and helped me check in without any hassle whatsoever. He was very friendly and made me feel at ease. The room is a good deal for the price, in my opinion. Everything was clean, and in great shape. The bed was comfortable too. More</t>
   </si>
   <si>
+    <t>Doug G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r504192246-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -828,6 +909,9 @@
     <t>Everything in the area was full and this was almost last option. I am afraid this falls far short of pleasant. The room was actually ok in terms of quietness. Cheap bedding and the lobby is pretty shabby. It was cheap which was really the only plus. More</t>
   </si>
   <si>
+    <t>375karthikeyanc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r503756497-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -852,6 +936,9 @@
     <t>Compact Luxury room with accessible restaurants near by with different options.  Have friendly liquor shop at walkable distance with TACO bell and Jack-in the box as his neighbors. Happy stay with good environment.More</t>
   </si>
   <si>
+    <t>Franco S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r502850227-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -879,6 +966,9 @@
     <t>I had a great time there. The staff was friendly and helpful. I wish there could have been more washers and driers. Other than that my experience was good. No complaints at all. I would stay there again.More</t>
   </si>
   <si>
+    <t>ccdickey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r501774794-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -903,6 +993,9 @@
     <t>The staff was amazing and I cannot stress that enough. The room was far less than amazing. I booked a suite and the bedroom didn't even have an AC unit. The AC unit for the suite was on a timer and would only run for 20 minutes and then cut off for 40 minutes. The temperature in the bedroom never got below 80 (in July, in Texas...). They advertise a fully stocked kitchen, but anything you need you must ask for. Even utensils were not provided. I appreciate the staff, but I would not recommend this hotel to my enemy. I wish I would have stayed at the motel 6 next door. It had to be nicer.....More</t>
   </si>
   <si>
+    <t>amber1913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r495137475-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1020,9 @@
     <t>This has been a joy and the easiest stay ever! Lani at the front desk do does so much when we need her very fast and answers all questions or concerns we may have. She has been a blessing. Also, Carla may be the best room-maid in the world! Never lose either of these ladies. Great experience.More</t>
   </si>
   <si>
+    <t>Omari P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r492573355-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1047,9 @@
     <t>Relocating for work purposes. This has been a finiancially and comfortable transition thanks to extended stay. I would definitely recommend to other guest in the future. The hotel is situated in a safe area, close to local stores and restaurants.More</t>
   </si>
   <si>
+    <t>paradisofamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r490096751-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1077,9 @@
     <t>Stayed at this hotel while working away from home.  The staff, in particular Lani, were very helpful and accommodating.  I will stay here again when my job requires me to return to Plano.  I enjoy having the kitchen in my room and also enjoy the daily breakfast the hotel provides.More</t>
   </si>
   <si>
+    <t>Josh38th</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r489275706-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1104,9 @@
     <t>I recently place a review about our travel to Extended Stay America Dallas Hotel.In my review it was excellent until a week ago when I was visited by an unpleasant knock at door by two men saying they have had complaints about weed smell in the hall way.I permitted them to come in and check my room out .Sr i stated we don't smoke in here at all let along weed so they told me about complaints coming from other guests but never said my room was single out....May 30 about 2:45 Im coming from out side and the individual that came week prior stated that my room has not been clean for a while and he wanted to inspect so i let him in first thing he said was that he smell cigarette smoke.how can that be when i just came from out side we both arrive at door at same time.My key card didn't work so I allowed the house keeper who was in the hallway about foot from my room to open the door.No walk thru are inspecting he single out I smell smoke no I have insincent that i burn have permission from front desk trying to explain at same time his employe is watching him not fully come in.Pay 250 for smoking fee no what smoking he replied I have been smoking for years ok could you have smell that on my shirt...last week you...I recently place a review about our travel to Extended Stay America Dallas Hotel.In my review it was excellent until a week ago when I was visited by an unpleasant knock at door by two men saying they have had complaints about weed smell in the hall way.I permitted them to come in and check my room out .Sr i stated we don't smoke in here at all let along weed so they told me about complaints coming from other guests but never said my room was single out....May 30 about 2:45 Im coming from out side and the individual that came week prior stated that my room has not been clean for a while and he wanted to inspect so i let him in first thing he said was that he smell cigarette smoke.how can that be when i just came from out side we both arrive at door at same time.My key card didn't work so I allowed the house keeper who was in the hallway about foot from my room to open the door.No walk thru are inspecting he single out I smell smoke no I have insincent that i burn have permission from front desk trying to explain at same time his employe is watching him not fully come in.Pay 250 for smoking fee no what smoking he replied I have been smoking for years ok could you have smell that on my shirt...last week you didn't smell cigarette you said weed..Cleaning lady in hall was said out loud he is picking on you all morning he has been accusing guest of smoking...Im only one that got out...Ok corporate reply with in 2days..Lawyer next...More</t>
   </si>
   <si>
+    <t>Claudio C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r478074153-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1134,9 @@
     <t>If it wasn't for the staff, I would never choose this hotel. The people working here are the only saving grace. In particular Lani, Armand, Desire and another lady with blond hair make the guests feel welcomed and treat you with the greatest respect. The problem is with the corporate side. Their cost cutting measures are horrible. The towels, if they have any are dingy and look like they have seen better days. They seem to run out of basic supplies like toilet paper and shampoo and soap. The kitchenette is greasy and the rooms have a stale food smell that's hard to mask. The maids are very nice and they make do with what they have. I want to be clear here, that the problem was see is not the staff, but the company which has these very austere policies.More</t>
   </si>
   <si>
+    <t>MichelleEdmonson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r465834813-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1155,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>DealHawk2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r463820310-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1179,9 @@
     <t>I've had some not-so-great experiences with ESA's in other places but this one was top of the line. Customer service was attentive, had everything ready, the wifi worked easily and the clientele was professional.This is located across the street from the heart hospital and there is even a second ESA around the corner.Room was clean, bed was comfortable. Kitchenette looked a little worn but I didn't try to cook. Shower had lots of water pressure. Towels were okay. As with all ESAs, you don't get daily maid service.Breakfast is not hot but 'grab and go', so that's disappointing, but the bars and oatmeal and coffee were name brand. And there were cookies and water bottles in the afternoon when I arrived.Pool was not tended to in February and the exercise room consisted of one step machine and one treadmill. Did not try them.This meets my expectations for a Priceline 2.5 star place.More</t>
   </si>
   <si>
+    <t>KirksMighty4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r459991239-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1206,9 @@
     <t>Our whole stay here has been incredibel because of Lani Thomas and her excellent customer service. Always smiling and always busy and calm under any circumstance when I needed her help. Antonio, I guess he is a traveling manager between two hotels never fails to help. Always prepared to help!! And Tammy, a new boss lady I've seen in action has straightened every thing out and really got the hotel looking and feeling better too. What a great teamMore</t>
   </si>
   <si>
+    <t>nsh192017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r455218506-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1236,9 @@
     <t>I want to say thank you for the great services at this location. The staff is very nice and the front desk clerk has a very beautiful attitude and  was concern about how well I enjoyed the stay. Will be back again. I was treated like I was at a five star hotel!!!More</t>
   </si>
   <si>
+    <t>Oscar Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r455094405-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1255,9 @@
   </si>
   <si>
     <t>This place is great to stay love the staff and management  was very helpful , they answer my every  question even when i ask many, they made my stay fell like home definitely one of the best hotels to stayMore</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r452113008-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -1165,6 +1288,9 @@
 And please train your people to react differently when they are asked about a concern....The place is under transitional management. That means there's no person to really "own" the management right now. So how that plays out is that if one mentions that trash behind the building is not being picked up, leaves by the doors are not cleaned up, tickets put in to get things fixed in the room aren't handled in a timely manner, and the housekeeping one paid for doesn't get done, then it can be quickly blamed on the fact that there's no manager right now. Pretty cool! They are off the hook...When you walk in the lobby smells like people have smoked there. Probably left from the old days but there are ionizers that can fix that. Desk help is defensive, bordering on rude. They all need a course on delightful customer service (read Steve Zipkoff's book on it or hire him for a training). One bright light is Jynelle. She's the 3pm - 11pm desk person. She is good at delightful customer service! Thanks, Jynelle!Extended Stay, does it really make sense to hire maintenance people to only work Monday thru Friday when you run a 24/7 business? People are messy every day, not only during the week days. You won't get better reviews until you change your business model and rethink your staffing model. Going cheap costs in the long run. And please train your people to react differently when they are asked about a concern. When all of your people blame management for not being able to solve simple problems like getting a new light bulb in a timely manner or getting hallway trash picked up, then you have a training issue. And your customers are left without good customer service. More</t>
   </si>
   <si>
+    <t>N M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r451487470-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1330,9 @@
     <t>First room assigned too-fleas and toilet going off every few minutes.....switched to another room-barking dogs and hallway smells bad-stairwell filthy with trash and dirty clothes...Do they ever clean this place? Never again!</t>
   </si>
   <si>
+    <t>Heather K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r413917355-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1360,9 @@
     <t>Nice quiet place to stay..checked in with no hassle...room was non-smoking and smelled very clean. Booked a single studio. It was big. Two windows were nice. Slept with them open and it was quiet. Bathroom was immaculate. Kitchen had everything I needed to cook a nice home cooked meal. Big dining table which I doubled as a work table and a large couch. Bed was a cozy spot. I intend to stay here each time I visit this area. And there is a IHOP right across the street. And most importantly there wasn't even an ant or bed bug or even any spider monkeys on the floor so do not believe any stories you read about it being dirty. Its spotless and clean. A+More</t>
   </si>
   <si>
+    <t>QueenCG62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r402855107-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1388,9 @@
   </si>
   <si>
     <t>Making a move to Dallas was not easy. But starting with check in, I felt right at home. Everyday someone asked if there was anything I needed or help with. The customer service is excellent, even at the time of check in. If you need a hotel for longer than two weeks, this is an excellent option and this site will not disappoint.More</t>
+  </si>
+  <si>
+    <t>Heather H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r382201129-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -1311,6 +1446,9 @@
 - There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest...We stayed for two months while waiting to move into a house.  Frankly, we chose this property for four reasons:1. The location further North off the Tollway wasn't available2. Extended Stays accept pets3. The price per night was significantly less than the Residence Inn4. Location, location, locationLikes:- The staff was excellent.  They are hardwork, eager to please, and really did make us feel welcome.  Any issues within their control were done to the best of their ability- Coffee.  Loved their coffee in the lobby every day- Location. Close to plenty of shops and restaurants (and given the condition of the kitchen in our unit, we ate out all but TWICE in 60 days).- They did replace the mattress during our stay as part of refurb.  Unit already had new flooring, carpet, bed, and couch.Dislikes: - Condition of the room: Cabinets were original and the cheapest, worst apartment MDF cabinets you all remember if you lived in an apartment circa 1996.  Bathtub was a fiberglass unit with cracks that allowed water to seep into the wall.  Both needed replacing BADLY- With all the spring rain, we began to notice a gap between the wall and window and started smelling mold, plus we saw evidence of a water leak on the drywall- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest being more explicit upon check-in on those rules as there were some issues initially- The color scheme makes the room feel dark and depressing, especially if you're there any length of time- The burner pans were FILTHY and should have been replaced prior to our check in.  I love to cook and didn't feel comfortable cooking there, especially after I saw roaches in the first couple of days.  (They did spray for pests during our stay and that helped).- The absolute worst was the poorly engineered A/C.  The unit is in the living room area and a fan is between the living and bedroom.  However, it's so high on the wall that it doesn't circulate air well.  Our bedroom never cooled down sufficiently at night.  Hot room = poor sleep for 60 days = cranky guests.  Cranky guests leave poor reviews.  Also, it didn't impact us, but if you have a room overlooking the courtyard/pool and it's a Friday or Saturday, BEWARE of noise.  People would be out there until all hours making noise and drinking.  Came in around 1 am one Saturday and the party was still going strong.  Saw plenty of evidence the next day in the various...More</t>
   </si>
   <si>
+    <t>Cricket820</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r354906878-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1338,6 +1476,9 @@
     <t>We chose this hotel because my sister was having heart surgery &amp; this hotel was right across the street from Plano Heart Hospital. We stayed 2 nights. The staff was very polite &amp; helpful.  If we needed or wanted something, they got it right away.  The room was not exactly what I thought it would be, but it was clean. The a/c was very loud.  We had to turn up the TV to hear it when the a/c was one, but when it cut off, we had to turn the TV back down.  The fridge leaked on the inside and there was food left from the previous guest, but other than that it was ok.  Because we told the front desk about the food in the fridge, they refunded us one of the nights.  The manager apologized for not making sure the room was as clean as they would like it to be before we got there.More</t>
   </si>
   <si>
+    <t>mrsconsumer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r353808461-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1503,9 @@
     <t>Up checking in the clerk was extremely pleasant and helpful. The lobby was clean and well lit. Entering our room was our 1st disappointment the size of the room and the bed was smaller then expected as it was only a full size. The kitchen was not pre-stocked everything we expected to be stocked in the kitchen we had to retrieve from the front desk ourselves. Upon examining the kitchen pack they did not provide dish soap or coffee filters or a dish cloth or clean sponge. We have never stayed at a extended stay hotel that the kitchen wasn't pre-stocked. Their reasoning was because they have had guests take Kitchen items when checking out. This bothered us because everytime we went to pick up an item they didn't ask our room number. So what difference does it make. The beds were hard and uncomfortable we did not get a good night sleep. Our family booked 3 additional rooms and had the same problem especially the lack of comfort in their beds also. In my sister's room she found food in her refrigerator from previous guests. The only postive side of our stay is that rooms were clean and the staff was extremely pleasant, helpful and apologic. If this is the way all the Extended Stay facilities operate we will not be a guest at this chain in the future.More</t>
   </si>
   <si>
+    <t>Matt12567578</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r349478330-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1533,9 @@
     <t>I just have to give you a great review.  From the moment I checked in until the end of my stay was memorable and fabulous. I usually don't write a review unless it was a bad experience,  but this hotel has to be recognized for its superior level of service and quality.  Everything was new, clean and organized.  The entire staff was friendly and helpful. I am definitely going to stay here next time I am in town. More</t>
   </si>
   <si>
+    <t>Debbijoolson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r339741412-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1414,6 +1561,9 @@
   </si>
   <si>
     <t>Was in Plano for work, stayed for two months, the front desk was very friendly and helpful.  The housekeeping left much to be desired.  Had to request sheets be changed at least every other week and not sure floors were even vacuumed weekly.  Bathroom was given a cursory cleaning so all in all not impressed with housekeeping.More</t>
+  </si>
+  <si>
+    <t>jmgraffix</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r336268243-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -1445,6 +1595,9 @@
 To add to the LACK in this hotel (issues the...OMG!  This place was the worst hotel experience of my entire life, and I don't travel much!!  If you're already here, stay away from room 124 ... BED BUGS!!  Or just skip this hotel chain altogether. I stayed there last night :-(  ... it was nearly 12am after a long day of work and I had finally relaxed in bed with a game on my iPad (and no cable/satellite TV btw, just local non-HD channels - REALLY?) and close to falling asleep, when suddenly I started itching. I got up to head to the bathroom and noticed a bed bug on my shirt. Then I ran back to the bed to check under the pillows and there were many ... ughh!!  So immediately and furiously, I go to the front desk clerk and bring him to the room to show him the bugs on the bed. Thankfully the only good about my stay was that the clerk did put me in a room without bed bugs, paid for my laundry to wash all the bugs out, and the General Manger refunded me in-full for the weekly rate amount. So after a shower, I was up till at least 3:45am finishing laundry and had to be to work in McKinney by 8:30am. I gladly left this hotel for another hotel chain that is cleaner and newer with updated features and styling!!To add to the LACK in this hotel (issues the same for both rooms) ... (1) the shower head (in both rooms) does not stay still or fixed in the desired position, so there's a constant battle in keeping it from flooding the entire bathroom floor (no shower curb, floor is flat with no lip to keep the water in shower - BAD ENGINEERING!!). (2) The bathroom sink has no counter space, nor is there any counter space in the bathroom! (3) The counters and surfaces in the kitchenette were not wiped down very good, so who knows what was previously on there?!  (4) The bed bug room also must have had bugs on the 2-seater couch as well because I had changed shirts, tossed it on the couch, yet it had bed bugs on it before adding with my other laundry.Extended Stay, your franchise really needs to step up their game and redo everything with CLEANLINESS (room cleaning more than just once a week) • Update your facilities and technology (TVs offered only local channels, the signal was 4:3 ratio NTSC on HD TVs, and no cable/satellite - pathetic!!) • Refrigerators were all marked and dented • The weekly rate here for me was $590, while a nicer, cleaner La Quinta Inn with updated features &amp; styling with satellite TV has a weekly rate of only $489.Well... in the future, every hotel room that I ever check-in to will...More</t>
   </si>
   <si>
+    <t>Michael C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r332467959-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1469,6 +1622,9 @@
     <t>There is much better places to stay for the money and accommodations.  Old hotel and looks cheap.  Bed want comfortable.  There is only 1 person at the front desk that runs the entire hotel.  No business center.  No hair dryers.  If you ask for 1 they test the box of old dryers and most don't work.  No glasses to drink water in your room.  No coffee machine in the room.  You can easily find a better place.  Don't make the same mistake I did.More</t>
   </si>
   <si>
+    <t>shira76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r332367341-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1643,9 @@
     <t>Had a very nice experience here. From check in with Shivel (not sure if I got that spelling right). The room was nice and clean. Thought it was very strange that for and extended stay, we had to request kitchen utensils, and there was not even a coffee maker in the room. Things that could have been better: don't understand why there was a pass thru from the kitchen to the bedroom? if someone uses kitchen while someone is in bed, the light is very disturbing.  Nice sitting area, again, would have been so much better, had there been some divider between the "bedroom" and the "living room", so anyone wanting to sleep, would not be disturbed by someone in that area. Did not bother to go down for breakfast. My husband said it was just some coffee and muffins and some granola bars.  Would recommend to others.More</t>
   </si>
   <si>
+    <t>mojo389</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r310769376-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1514,6 +1673,9 @@
     <t>be careful what room you get below the room above 124 make to much noise all day long not close to any thing  dirty only cleans once a week Only clean ones a week not a good breakfast bar same stuff every day no juiceMore</t>
   </si>
   <si>
+    <t>Stephanie_Israelstam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r286446230-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1697,9 @@
     <t>This place should be condemned or, better yet, burned to the ground. I booked a one-night stay here and ended up regretting it. The place smelled like a combination of stale cigarette butts and a gym locker room. Upon arrival, the front desk attendant had to go "check to see if the room is ready" before I could go in. She left the front desk and I stood in the lobby (which was as inviting as a federal women's prison waiting room) for 15 minutes while she was gone. She finally came back and said that the room was ready for me. What she was doing during that time, I'll never know but I can't imagine she actually opened to the door to my room to Hi! Coming over later. What do you need that isn't already being brought? Donna said there was a list or something?see what it looked like. If she had, she would have seen it was dirty, smelled TERRIBLE and was not ready for a guest, not event a rat on the street. This was without a doubt the grossest hotel I have ever seen. I did not get a refund for my five-minute stay but would have slept in my car before staying in that dilapidated and disgusting place. More</t>
   </si>
   <si>
+    <t>MideastWanderer2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r280975659-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1560,6 +1725,9 @@
   </si>
   <si>
     <t>We were pleasantly surprised by how helpful and friendly the staff was and by how clean the room was.  We had recently stayed at much more expensive hotels in other cities and this hotel could easily compete with the more expensive hotels.Chase, the manager, was especially nice and even arranged to upgrade our room when there was a minor problem with our microwave.  I never saw one of the staff members being unpleasant or not smiling and engaging in conversation with the guests.Room supplies were readily available at the front desk and the "Grab and Go" breakfast was just enough to get the day started.I would highly recommend this Extended Stay America for anyone needing a hotel in the Dallas/Plano area.More</t>
+  </si>
+  <si>
+    <t>Raquel J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r275428918-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -2085,43 +2253,47 @@
       <c r="A2" t="n">
         <v>33693</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2133,56 +2305,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33693</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2194,56 +2370,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33693</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2259,56 +2439,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33693</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2320,56 +2504,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33693</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2387,56 +2575,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33693</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2454,56 +2646,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33693</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2519,56 +2715,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33693</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2590,56 +2790,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33693</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>22459</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2651,56 +2855,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33693</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>32595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2722,47 +2930,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33693</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -2779,56 +2991,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33693</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2850,56 +3066,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33693</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2921,56 +3141,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33693</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>13492</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2982,56 +3206,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33693</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3049,56 +3277,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33693</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3110,56 +3342,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33693</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136155</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3177,56 +3413,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33693</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3242,56 +3482,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33693</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>85470</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3307,56 +3551,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33693</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3372,56 +3620,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33693</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3433,56 +3685,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33693</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>17017</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3498,56 +3754,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33693</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3559,56 +3819,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33693</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3630,56 +3894,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33693</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3701,56 +3969,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33693</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>48189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3762,56 +4034,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33693</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>31151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3823,56 +4099,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33693</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3892,56 +4172,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="X29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33693</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3963,56 +4247,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="X30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="Y30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33693</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4024,56 +4312,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="X31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33693</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4085,56 +4377,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33693</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4156,56 +4452,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33693</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136167</v>
+      </c>
+      <c r="C34" t="s">
+        <v>343</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4223,56 +4523,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33693</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>353</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4284,56 +4588,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="X35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33693</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>60543</v>
+      </c>
+      <c r="C36" t="s">
+        <v>362</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="O36" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -4351,56 +4659,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33693</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4420,50 +4732,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33693</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4483,50 +4799,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33693</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>387</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O39" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4538,56 +4858,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="X39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33693</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>396</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4605,56 +4929,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="X40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33693</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>64029</v>
+      </c>
+      <c r="C41" t="s">
+        <v>406</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O41" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4666,56 +4994,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="X41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Y41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33693</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>413</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="J42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="K42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="L42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O42" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4729,50 +5061,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33693</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136173</v>
+      </c>
+      <c r="C43" t="s">
+        <v>420</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="J43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="L43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4788,56 +5124,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="X43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Y43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33693</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>413</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4851,50 +5191,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33693</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>5460</v>
+      </c>
+      <c r="C45" t="s">
+        <v>434</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="J45" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4906,56 +5250,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="X45" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="Y45" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33693</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136174</v>
+      </c>
+      <c r="C46" t="s">
+        <v>444</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="J46" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="K46" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="L46" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="O46" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4973,56 +5321,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="X46" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y46" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33693</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>18150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>454</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="O47" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5040,56 +5392,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="X47" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Y47" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33693</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>464</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="K48" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="L48" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="O48" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5105,56 +5461,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="X48" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="Y48" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33693</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>474</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="J49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="L49" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="O49" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5166,56 +5526,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="X49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="Y49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33693</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>483</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="J50" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="K50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="L50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5227,56 +5591,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="X50" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="Y50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33693</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136178</v>
+      </c>
+      <c r="C51" t="s">
+        <v>493</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="K51" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="L51" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5292,56 +5660,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="X51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="Y51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33693</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>503</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="J52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="K52" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="L52" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="O52" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5359,56 +5731,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="X52" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="Y52" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33693</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>228</v>
+      </c>
+      <c r="C53" t="s">
+        <v>513</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="J53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="K53" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="L53" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="O53" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5420,56 +5796,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="X53" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="Y53" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33693</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>136180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>522</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="J54" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="K54" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="O54" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -5489,50 +5869,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33693</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>529</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="J55" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="K55" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="O55" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5544,56 +5928,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="X55" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="Y55" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33693</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>539</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="J56" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="K56" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="L56" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="O56" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5607,50 +5995,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33693</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>547</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="J57" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="K57" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="L57" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="O57" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -5668,56 +6060,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="X57" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="Y57" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33693</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>557</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="J58" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="K58" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="L58" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="O58" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5735,7 +6131,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_226.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_226.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="560">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,184 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>KarthikRamachandran</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r606424249-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>106505</t>
+  </si>
+  <si>
+    <t>606424249</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Thought it was great.</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 months, a studio with refrigerator, sink, stove, microwave, and it was a GREAT deal.  The place is a little dated but it's clean and has all the amenities you need.  Great location.  Wifi is not super fast.  The front desk staff are all GREAT people.  I felt safe in the place and location.  I didn't give it a 5 star rating only because they should upgrade some of the furnishings.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 months, a studio with refrigerator, sink, stove, microwave, and it was a GREAT deal.  The place is a little dated but it's clean and has all the amenities you need.  Great location.  Wifi is not super fast.  The front desk staff are all GREAT people.  I felt safe in the place and location.  I didn't give it a 5 star rating only because they should upgrade some of the furnishings.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r583973730-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>583973730</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Excellent people made a very good stay</t>
+  </si>
+  <si>
+    <t>This place offers one of the best value for money. It has good facilities. Some very nice and friendly people run it. Including the manager and her staff. My family and I had a very good time here. If I need another stay in Plano, I would choose this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>This place offers one of the best value for money. It has good facilities. Some very nice and friendly people run it. Including the manager and her staff. My family and I had a very good time here. If I need another stay in Plano, I would choose this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r603290852-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>603290852</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Don't Stay!</t>
+  </si>
+  <si>
+    <t>We have had a bad experience! Our room keycard has had yo be reprogrammed at least 20 times, staff keeps changing stories regarding laundry room, and there were no utensils in kitchen. You have to ask for EVERYTHING! We stayed on North Dallas Parkway one. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We have had a bad experience! Our room keycard has had yo be reprogrammed at least 20 times, staff keeps changing stories regarding laundry room, and there were no utensils in kitchen. You have to ask for EVERYTHING! We stayed on North Dallas Parkway one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r595439730-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>595439730</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Satisfied Customer</t>
+  </si>
+  <si>
+    <t>I recommend this hotel to all my friends and family.  I have enjoyed my stay here at the hotel.  The General Manager is really sweet and helpful.  Plus her staff is awesome too.. Thank you for making me and my family feel welcome. Sincerely yours, A. SmithMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>I recommend this hotel to all my friends and family.  I have enjoyed my stay here at the hotel.  The General Manager is really sweet and helpful.  Plus her staff is awesome too.. Thank you for making me and my family feel welcome. Sincerely yours, A. SmithMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r593353530-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>593353530</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>5 star</t>
+  </si>
+  <si>
+    <t>The wonderful lady at the front desk, Shida(?), was very helpful, kind and informative. Recommended for long term stays. The rooms are welcoming and tidy upon arrival. The TV has plenty of screen for even the most avid of binge watchers.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>The wonderful lady at the front desk, Shida(?), was very helpful, kind and informative. Recommended for long term stays. The rooms are welcoming and tidy upon arrival. The TV has plenty of screen for even the most avid of binge watchers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r589975467-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>589975467</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Horrible stay</t>
+  </si>
+  <si>
+    <t>Our family booked this hotel and had hopes it would be clean since it has some decent reviews. Come to find out it appears those reviews are made by locals with only 1 other review.. makes me think staff or friends of staff are reviewing this place. What a shame. 
+First impression. The lady at the check in counter was busy visiting with another staff member and she made us wait nearly 10 mins before even acknowledging us. When she did she wasnt very welcoming at all. We get to the elevator to head to our room and its gross. Never wiped down and the elevator stinks like rotten food. Get to the 2nd floor where are room was and I actually gagged at the smell. It was like a cross between rotten garbage and Curry. Get into our room and it smells almost as bad. Look around and decide that we need to go purchase some cleaning supplies since changing hotels at this point would cost too much. Booked through Priceline so it's not refundable. Let me tell you the remote for the TV was gross. The Clorox wipes were black after wiping it and everything else down. 
+The next day they to use the pool. Discover its locked. Well come to find out they dont have the proper permits to open the pool. Was given the story that it was because property just became an extended stay. Which...Our family booked this hotel and had hopes it would be clean since it has some decent reviews. Come to find out it appears those reviews are made by locals with only 1 other review.. makes me think staff or friends of staff are reviewing this place. What a shame. First impression. The lady at the check in counter was busy visiting with another staff member and she made us wait nearly 10 mins before even acknowledging us. When she did she wasnt very welcoming at all. We get to the elevator to head to our room and its gross. Never wiped down and the elevator stinks like rotten food. Get to the 2nd floor where are room was and I actually gagged at the smell. It was like a cross between rotten garbage and Curry. Get into our room and it smells almost as bad. Look around and decide that we need to go purchase some cleaning supplies since changing hotels at this point would cost too much. Booked through Priceline so it's not refundable. Let me tell you the remote for the TV was gross. The Clorox wipes were black after wiping it and everything else down. The next day they to use the pool. Discover its locked. Well come to find out they dont have the proper permits to open the pool. Was given the story that it was because property just became an extended stay. Which is a lie based on several dates of reviews. Would have been nice to know this beforehand. Signs posted and a notice on website would have been appreciated. 2nd night there was a bug on the pull out bed. Absolutely disgusting. Staff doesnt care when you try to explain how gross this place is and it's clear housekeeping doesnt actually do their jobs. Condom wrapper behind the night table, the place stinks, floors in lobby and hallway gross, elevator gross. We Left very early the next morning. Will never recommend this hotel to anyone. Feel like a homeless shelter is probably cleaner. The QT gas station next door did have good breakfast burritos for 2.99...MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Our family booked this hotel and had hopes it would be clean since it has some decent reviews. Come to find out it appears those reviews are made by locals with only 1 other review.. makes me think staff or friends of staff are reviewing this place. What a shame. 
+First impression. The lady at the check in counter was busy visiting with another staff member and she made us wait nearly 10 mins before even acknowledging us. When she did she wasnt very welcoming at all. We get to the elevator to head to our room and its gross. Never wiped down and the elevator stinks like rotten food. Get to the 2nd floor where are room was and I actually gagged at the smell. It was like a cross between rotten garbage and Curry. Get into our room and it smells almost as bad. Look around and decide that we need to go purchase some cleaning supplies since changing hotels at this point would cost too much. Booked through Priceline so it's not refundable. Let me tell you the remote for the TV was gross. The Clorox wipes were black after wiping it and everything else down. 
+The next day they to use the pool. Discover its locked. Well come to find out they dont have the proper permits to open the pool. Was given the story that it was because property just became an extended stay. Which...Our family booked this hotel and had hopes it would be clean since it has some decent reviews. Come to find out it appears those reviews are made by locals with only 1 other review.. makes me think staff or friends of staff are reviewing this place. What a shame. First impression. The lady at the check in counter was busy visiting with another staff member and she made us wait nearly 10 mins before even acknowledging us. When she did she wasnt very welcoming at all. We get to the elevator to head to our room and its gross. Never wiped down and the elevator stinks like rotten food. Get to the 2nd floor where are room was and I actually gagged at the smell. It was like a cross between rotten garbage and Curry. Get into our room and it smells almost as bad. Look around and decide that we need to go purchase some cleaning supplies since changing hotels at this point would cost too much. Booked through Priceline so it's not refundable. Let me tell you the remote for the TV was gross. The Clorox wipes were black after wiping it and everything else down. The next day they to use the pool. Discover its locked. Well come to find out they dont have the proper permits to open the pool. Was given the story that it was because property just became an extended stay. Which is a lie based on several dates of reviews. Would have been nice to know this beforehand. Signs posted and a notice on website would have been appreciated. 2nd night there was a bug on the pull out bed. Absolutely disgusting. Staff doesnt care when you try to explain how gross this place is and it's clear housekeeping doesnt actually do their jobs. Condom wrapper behind the night table, the place stinks, floors in lobby and hallway gross, elevator gross. We Left very early the next morning. Will never recommend this hotel to anyone. Feel like a homeless shelter is probably cleaner. The QT gas station next door did have good breakfast burritos for 2.99...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r583492150-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>106505</t>
-  </si>
-  <si>
     <t>583492150</t>
   </si>
   <si>
@@ -180,16 +343,361 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded today</t>
-  </si>
-  <si>
-    <t>Responded today</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
   </si>
   <si>
     <t>As they say, you get what you pay for. The hotel has been there for sometime and it shows. The reception area is being renovated and is quite dusty. The rooms are basic and as in all ESA hotels, cleaning is once a week. The saving grace is the staff, they are quite friendly and very helpful. Breakfast is just grab and go muffins and coffee. Stay if you have to, but don't expect anything great. Ok hotel. More</t>
   </si>
   <si>
-    <t>Ava D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r580829884-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>580829884</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>This hotel was disgusting. It smelled and none of the TV's in the rooms worked. They made a loud noise when you tried to watch them. In our first room the refrigerator made a loud noise along with the TV's so we asked to be moved. The front desk agent was rude when we asked but eventually moved us. The second room wasn't much different. The TV's didn't work and the pull out bed was dirty. At this point it was too late to even leave so we just went to bed.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was disgusting. It smelled and none of the TV's in the rooms worked. They made a loud noise when you tried to watch them. In our first room the refrigerator made a loud noise along with the TV's so we asked to be moved. The front desk agent was rude when we asked but eventually moved us. The second room wasn't much different. The TV's didn't work and the pull out bed was dirty. At this point it was too late to even leave so we just went to bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r578322450-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>578322450</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Very old rooms were shabby, bathtub was dirty I had to clean the room myself to ensure I had somewhat comfortable stay, they really need to update the rooms....Thank-you I rate your establishment from 1-10 of 4MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Very old rooms were shabby, bathtub was dirty I had to clean the room myself to ensure I had somewhat comfortable stay, they really need to update the rooms....Thank-you I rate your establishment from 1-10 of 4More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r573848088-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>573848088</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>Great staff, very friendly and helpful in making the best out of my stay. Room is very comfortable to the point that I have returned for yet another extended stay. BBQ on the patio was a very nice feature not found at majority of hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Great staff, very friendly and helpful in making the best out of my stay. Room is very comfortable to the point that I have returned for yet another extended stay. BBQ on the patio was a very nice feature not found at majority of hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r560214461-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>560214461</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>The Plano, TX location is awesome. The Manager cares about her guests. Armand is a Rep at this location and he is very professional, provides excellent customer service and he also has great hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>The Plano, TX location is awesome. The Manager cares about her guests. Armand is a Rep at this location and he is very professional, provides excellent customer service and he also has great hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r559383801-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>559383801</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Long Term Stay</t>
+  </si>
+  <si>
+    <t>I am staying for an extended stay while working on a business deal in the area.  While I have been here, the staff has been friendly and attentive.  My room is efficient and meets my needs for while I I have been here.  The overall value received for the rate paid is very good.  Due to the pricing, I have saved money compared to getting a corporate apartment.  It is also beneficial because I do not need to lock in an end date or pay beyond the time needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>I am staying for an extended stay while working on a business deal in the area.  While I have been here, the staff has been friendly and attentive.  My room is efficient and meets my needs for while I I have been here.  The overall value received for the rate paid is very good.  Due to the pricing, I have saved money compared to getting a corporate apartment.  It is also beneficial because I do not need to lock in an end date or pay beyond the time needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r559330517-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>559330517</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>not worth the $</t>
+  </si>
+  <si>
+    <t>room smelt terrible.  the "free breakfast" was an instant oatmeal pack and cold coffee.  the desk staff was nice but when asked for extra pillow, did not receive it.  room was clean but had no supplies provided.  overall not what is expected.  would not recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>room smelt terrible.  the "free breakfast" was an instant oatmeal pack and cold coffee.  the desk staff was nice but when asked for extra pillow, did not receive it.  room was clean but had no supplies provided.  overall not what is expected.  would not recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r557968313-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>557968313</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>READ FIRST</t>
+  </si>
+  <si>
+    <t>This is a real, accurate review. Showed up at 11:30 p.m. for my reservation. Already on the door was a sloppily written sign that said "no vacancies." I didn't realize we were in a 1960s horror movie. Then to top it all off I sat there for 30 minutes while I banged on the door and called the front desk to try to get someones attention. I heard the phone ring for 30 straight minutes from outside and no one came. I eventually had to leave and go to a hotel down the road because no one was ever able to answer the door which is insane. Eventually orbitz was able to get a hold of them and they claimed they were there the whole time, which was a bold face lie. Clearly someone super unprofessional fell asleep at the desk and did not answer my call. I would give this place 0 Stars if I could. Unless you are dying and there is zero other hotels available I would never ever ever recommend this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>This is a real, accurate review. Showed up at 11:30 p.m. for my reservation. Already on the door was a sloppily written sign that said "no vacancies." I didn't realize we were in a 1960s horror movie. Then to top it all off I sat there for 30 minutes while I banged on the door and called the front desk to try to get someones attention. I heard the phone ring for 30 straight minutes from outside and no one came. I eventually had to leave and go to a hotel down the road because no one was ever able to answer the door which is insane. Eventually orbitz was able to get a hold of them and they claimed they were there the whole time, which was a bold face lie. Clearly someone super unprofessional fell asleep at the desk and did not answer my call. I would give this place 0 Stars if I could. Unless you are dying and there is zero other hotels available I would never ever ever recommend this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r552804290-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>552804290</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Room clean on check in, but had to request housekeeping on day 3 of our stay. No cutlery, crockery Etc in the kitchen. We had to specifically request and collect at reception. Staff very helpful and friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Room clean on check in, but had to request housekeeping on day 3 of our stay. No cutlery, crockery Etc in the kitchen. We had to specifically request and collect at reception. Staff very helpful and friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r545620366-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>545620366</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! And Hospitality! </t>
+  </si>
+  <si>
+    <t>Staff is great, made our stay very comfortable when wanting something. They acted fast. Will DEFINITELY return again. Will recommend to others. Very understanding when didn’t come exactly at check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Staff is great, made our stay very comfortable when wanting something. They acted fast. Will DEFINITELY return again. Will recommend to others. Very understanding when didn’t come exactly at check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r542837768-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>542837768</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>not bad</t>
+  </si>
+  <si>
+    <t>good in price for long trip.breakfast was nothing but they are clear in this point from the begining  ..there was smell in the room ..small rooms ..perfect location in plano ..friendly customed service .. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>good in price for long trip.breakfast was nothing but they are clear in this point from the begining  ..there was smell in the room ..small rooms ..perfect location in plano ..friendly customed service .. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r540836877-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>540836877</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Would not return to this property.</t>
+  </si>
+  <si>
+    <t>Sadly, this property is not up to par. The room and hotel in general needs a great deal of TLC. I have stayed in Extended Stay America properties in Colorado and had no problem. This was very disappointing!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Sadly, this property is not up to par. The room and hotel in general needs a great deal of TLC. I have stayed in Extended Stay America properties in Colorado and had no problem. This was very disappointing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r536450432-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>536450432</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointed </t>
+  </si>
+  <si>
+    <t>I drove to town from another state to visit my family. I arrived late in the evening and checked in. After signing the papers I was handed the key to a room on the 4th floor, and only then was informed that the elevator did not work. The lower floors did not have any available rooms. My suitcase was large and very heavy. The male clerk told me ‘it’s an easy trek up the stairs’...it most certainly was not, and he did not offer to help me. I am a petite woman with asthma and struggled to lug the suitcase step by step. I was not offered a discount and the room was $101. for one night. I discussed the issue with the clerk in the morning and she agreed that he should have offered to help me....but once again no offer for a discount. She also informed me the elevator would be out of order for weeks....TOTALLY unacceptable. I would never recommend this hotel to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>I drove to town from another state to visit my family. I arrived late in the evening and checked in. After signing the papers I was handed the key to a room on the 4th floor, and only then was informed that the elevator did not work. The lower floors did not have any available rooms. My suitcase was large and very heavy. The male clerk told me ‘it’s an easy trek up the stairs’...it most certainly was not, and he did not offer to help me. I am a petite woman with asthma and struggled to lug the suitcase step by step. I was not offered a discount and the room was $101. for one night. I discussed the issue with the clerk in the morning and she agreed that he should have offered to help me....but once again no offer for a discount. She also informed me the elevator would be out of order for weeks....TOTALLY unacceptable. I would never recommend this hotel to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r534376173-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>534376173</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Fair rate, good staff &amp; has all required things</t>
+  </si>
+  <si>
+    <t>Fair rate, good staff &amp; has all required things .Provides free breakfast ,wifi too. Only one suggestion : please install drinking water fountain :)Kitchen is der so you can make your own food . overall i had wonderful time hereMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Fair rate, good staff &amp; has all required things .Provides free breakfast ,wifi too. Only one suggestion : please install drinking water fountain :)Kitchen is der so you can make your own food . overall i had wonderful time hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r533463204-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>533463204</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4709 w plano pkwy </t>
+  </si>
+  <si>
+    <t>My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they...My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they cater to the people treated at hospitals!! In this location, one could see where the handicapped door button was removed!! You're not losing heat or A/C, as there's an anteroom between the doors. Like I said,  I didn't have a great stay,  but Armand saved you from losing my company's business by being exceptional at his job!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they...My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they cater to the people treated at hospitals!! In this location, one could see where the handicapped door button was removed!! You're not losing heat or A/C, as there's an anteroom between the doors. Like I said,  I didn't have a great stay,  but Armand saved you from losing my company's business by being exceptional at his job!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r532152521-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -207,12 +715,6 @@
     <t>I really enjoyed my stay I had pool side view which was really nice!  Everyone was sooooo extremely nice to my sister and I.  The room was nice and very clean you don’t find that often.  I was very pleased!!!MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded October 12, 2017</t>
   </si>
   <si>
@@ -222,402 +724,6 @@
     <t>I really enjoyed my stay I had pool side view which was really nice!  Everyone was sooooo extremely nice to my sister and I.  The room was nice and very clean you don’t find that often.  I was very pleased!!!More</t>
   </si>
   <si>
-    <t>Roanna C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r580829884-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>580829884</t>
-  </si>
-  <si>
-    <t>05/17/2018</t>
-  </si>
-  <si>
-    <t>Disgusting</t>
-  </si>
-  <si>
-    <t>This hotel was disgusting. It smelled and none of the TV's in the rooms worked. They made a loud noise when you tried to watch them. In our first room the refrigerator made a loud noise along with the TV's so we asked to be moved. The front desk agent was rude when we asked but eventually moved us. The second room wasn't much different. The TV's didn't work and the pull out bed was dirty. At this point it was too late to even leave so we just went to bed.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
-    <t>This hotel was disgusting. It smelled and none of the TV's in the rooms worked. They made a loud noise when you tried to watch them. In our first room the refrigerator made a loud noise along with the TV's so we asked to be moved. The front desk agent was rude when we asked but eventually moved us. The second room wasn't much different. The TV's didn't work and the pull out bed was dirty. At this point it was too late to even leave so we just went to bed.More</t>
-  </si>
-  <si>
-    <t>sgull242018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r578322450-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>578322450</t>
-  </si>
-  <si>
-    <t>05/06/2018</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
-    <t>Very old rooms were shabby, bathtub was dirty I had to clean the room myself to ensure I had somewhat comfortable stay, they really need to update the rooms....Thank-you I rate your establishment from 1-10 of 4MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Very old rooms were shabby, bathtub was dirty I had to clean the room myself to ensure I had somewhat comfortable stay, they really need to update the rooms....Thank-you I rate your establishment from 1-10 of 4More</t>
-  </si>
-  <si>
-    <t>mnaile</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r573848088-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>573848088</t>
-  </si>
-  <si>
-    <t>04/16/2018</t>
-  </si>
-  <si>
-    <t>Home away from Home</t>
-  </si>
-  <si>
-    <t>Great staff, very friendly and helpful in making the best out of my stay. Room is very comfortable to the point that I have returned for yet another extended stay. BBQ on the patio was a very nice feature not found at majority of hotels.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded April 17, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 17, 2018</t>
-  </si>
-  <si>
-    <t>Great staff, very friendly and helpful in making the best out of my stay. Room is very comfortable to the point that I have returned for yet another extended stay. BBQ on the patio was a very nice feature not found at majority of hotels.More</t>
-  </si>
-  <si>
-    <t>lynelllips</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r560214461-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>560214461</t>
-  </si>
-  <si>
-    <t>02/13/2018</t>
-  </si>
-  <si>
-    <t>Customer Service</t>
-  </si>
-  <si>
-    <t>The Plano, TX location is awesome. The Manager cares about her guests. Armand is a Rep at this location and he is very professional, provides excellent customer service and he also has great hospitality.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded February 13, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 13, 2018</t>
-  </si>
-  <si>
-    <t>The Plano, TX location is awesome. The Manager cares about her guests. Armand is a Rep at this location and he is very professional, provides excellent customer service and he also has great hospitality.More</t>
-  </si>
-  <si>
-    <t>wngreene</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r559383801-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>559383801</t>
-  </si>
-  <si>
-    <t>02/09/2018</t>
-  </si>
-  <si>
-    <t>Long Term Stay</t>
-  </si>
-  <si>
-    <t>I am staying for an extended stay while working on a business deal in the area.  While I have been here, the staff has been friendly and attentive.  My room is efficient and meets my needs for while I I have been here.  The overall value received for the rate paid is very good.  Due to the pricing, I have saved money compared to getting a corporate apartment.  It is also beneficial because I do not need to lock in an end date or pay beyond the time needed.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded February 9, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 9, 2018</t>
-  </si>
-  <si>
-    <t>I am staying for an extended stay while working on a business deal in the area.  While I have been here, the staff has been friendly and attentive.  My room is efficient and meets my needs for while I I have been here.  The overall value received for the rate paid is very good.  Due to the pricing, I have saved money compared to getting a corporate apartment.  It is also beneficial because I do not need to lock in an end date or pay beyond the time needed.More</t>
-  </si>
-  <si>
-    <t>N862PJjulieb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r559330517-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>559330517</t>
-  </si>
-  <si>
-    <t>02/08/2018</t>
-  </si>
-  <si>
-    <t>not worth the $</t>
-  </si>
-  <si>
-    <t>room smelt terrible.  the "free breakfast" was an instant oatmeal pack and cold coffee.  the desk staff was nice but when asked for extra pillow, did not receive it.  room was clean but had no supplies provided.  overall not what is expected.  would not recommendMoreShow less</t>
-  </si>
-  <si>
-    <t>room smelt terrible.  the "free breakfast" was an instant oatmeal pack and cold coffee.  the desk staff was nice but when asked for extra pillow, did not receive it.  room was clean but had no supplies provided.  overall not what is expected.  would not recommendMore</t>
-  </si>
-  <si>
-    <t>Jeff M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r557968313-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>557968313</t>
-  </si>
-  <si>
-    <t>02/02/2018</t>
-  </si>
-  <si>
-    <t>READ FIRST</t>
-  </si>
-  <si>
-    <t>This is a real, accurate review. Showed up at 11:30 p.m. for my reservation. Already on the door was a sloppily written sign that said "no vacancies." I didn't realize we were in a 1960s horror movie. Then to top it all off I sat there for 30 minutes while I banged on the door and called the front desk to try to get someones attention. I heard the phone ring for 30 straight minutes from outside and no one came. I eventually had to leave and go to a hotel down the road because no one was ever able to answer the door which is insane. Eventually orbitz was able to get a hold of them and they claimed they were there the whole time, which was a bold face lie. Clearly someone super unprofessional fell asleep at the desk and did not answer my call. I would give this place 0 Stars if I could. Unless you are dying and there is zero other hotels available I would never ever ever recommend this hotelMoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded February 3, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 3, 2018</t>
-  </si>
-  <si>
-    <t>This is a real, accurate review. Showed up at 11:30 p.m. for my reservation. Already on the door was a sloppily written sign that said "no vacancies." I didn't realize we were in a 1960s horror movie. Then to top it all off I sat there for 30 minutes while I banged on the door and called the front desk to try to get someones attention. I heard the phone ring for 30 straight minutes from outside and no one came. I eventually had to leave and go to a hotel down the road because no one was ever able to answer the door which is insane. Eventually orbitz was able to get a hold of them and they claimed they were there the whole time, which was a bold face lie. Clearly someone super unprofessional fell asleep at the desk and did not answer my call. I would give this place 0 Stars if I could. Unless you are dying and there is zero other hotels available I would never ever ever recommend this hotelMore</t>
-  </si>
-  <si>
-    <t>Deborah G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r552804290-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>552804290</t>
-  </si>
-  <si>
-    <t>01/09/2018</t>
-  </si>
-  <si>
-    <t>Great location</t>
-  </si>
-  <si>
-    <t>Room clean on check in, but had to request housekeeping on day 3 of our stay. No cutlery, crockery Etc in the kitchen. We had to specifically request and collect at reception. Staff very helpful and friendly. MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded January 10, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 10, 2018</t>
-  </si>
-  <si>
-    <t>Room clean on check in, but had to request housekeeping on day 3 of our stay. No cutlery, crockery Etc in the kitchen. We had to specifically request and collect at reception. Staff very helpful and friendly. More</t>
-  </si>
-  <si>
-    <t>Luchi P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r545620366-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>545620366</t>
-  </si>
-  <si>
-    <t>12/06/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great stay! And Hospitality! </t>
-  </si>
-  <si>
-    <t>Staff is great, made our stay very comfortable when wanting something. They acted fast. Will DEFINITELY return again. Will recommend to others. Very understanding when didn’t come exactly at check out.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded December 7, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 7, 2017</t>
-  </si>
-  <si>
-    <t>Staff is great, made our stay very comfortable when wanting something. They acted fast. Will DEFINITELY return again. Will recommend to others. Very understanding when didn’t come exactly at check out.More</t>
-  </si>
-  <si>
-    <t>590doc</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r542837768-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>542837768</t>
-  </si>
-  <si>
-    <t>11/23/2017</t>
-  </si>
-  <si>
-    <t>not bad</t>
-  </si>
-  <si>
-    <t>good in price for long trip.breakfast was nothing but they are clear in this point from the begining  ..there was smell in the room ..small rooms ..perfect location in plano ..friendly customed service .. MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded November 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 24, 2017</t>
-  </si>
-  <si>
-    <t>good in price for long trip.breakfast was nothing but they are clear in this point from the begining  ..there was smell in the room ..small rooms ..perfect location in plano ..friendly customed service .. More</t>
-  </si>
-  <si>
-    <t>LINDA H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r540836877-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>540836877</t>
-  </si>
-  <si>
-    <t>11/13/2017</t>
-  </si>
-  <si>
-    <t>Would not return to this property.</t>
-  </si>
-  <si>
-    <t>Sadly, this property is not up to par. The room and hotel in general needs a great deal of TLC. I have stayed in Extended Stay America properties in Colorado and had no problem. This was very disappointing!MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded November 14, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 14, 2017</t>
-  </si>
-  <si>
-    <t>Sadly, this property is not up to par. The room and hotel in general needs a great deal of TLC. I have stayed in Extended Stay America properties in Colorado and had no problem. This was very disappointing!More</t>
-  </si>
-  <si>
-    <t>Lynn B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r536450432-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>536450432</t>
-  </si>
-  <si>
-    <t>10/27/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very disappointed </t>
-  </si>
-  <si>
-    <t>I drove to town from another state to visit my family. I arrived late in the evening and checked in. After signing the papers I was handed the key to a room on the 4th floor, and only then was informed that the elevator did not work. The lower floors did not have any available rooms. My suitcase was large and very heavy. The male clerk told me ‘it’s an easy trek up the stairs’...it most certainly was not, and he did not offer to help me. I am a petite woman with asthma and struggled to lug the suitcase step by step. I was not offered a discount and the room was $101. for one night. I discussed the issue with the clerk in the morning and she agreed that he should have offered to help me....but once again no offer for a discount. She also informed me the elevator would be out of order for weeks....TOTALLY unacceptable. I would never recommend this hotel to anyone. MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded October 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 28, 2017</t>
-  </si>
-  <si>
-    <t>I drove to town from another state to visit my family. I arrived late in the evening and checked in. After signing the papers I was handed the key to a room on the 4th floor, and only then was informed that the elevator did not work. The lower floors did not have any available rooms. My suitcase was large and very heavy. The male clerk told me ‘it’s an easy trek up the stairs’...it most certainly was not, and he did not offer to help me. I am a petite woman with asthma and struggled to lug the suitcase step by step. I was not offered a discount and the room was $101. for one night. I discussed the issue with the clerk in the morning and she agreed that he should have offered to help me....but once again no offer for a discount. She also informed me the elevator would be out of order for weeks....TOTALLY unacceptable. I would never recommend this hotel to anyone. More</t>
-  </si>
-  <si>
-    <t>mohaseenemran</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r534376173-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>534376173</t>
-  </si>
-  <si>
-    <t>10/19/2017</t>
-  </si>
-  <si>
-    <t>Fair rate, good staff &amp; has all required things</t>
-  </si>
-  <si>
-    <t>Fair rate, good staff &amp; has all required things .Provides free breakfast ,wifi too. Only one suggestion : please install drinking water fountain :)Kitchen is der so you can make your own food . overall i had wonderful time hereMoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded October 20, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 20, 2017</t>
-  </si>
-  <si>
-    <t>Fair rate, good staff &amp; has all required things .Provides free breakfast ,wifi too. Only one suggestion : please install drinking water fountain :)Kitchen is der so you can make your own food . overall i had wonderful time hereMore</t>
-  </si>
-  <si>
-    <t>jma129</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r533463204-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>533463204</t>
-  </si>
-  <si>
-    <t>10/16/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4709 w plano pkwy </t>
-  </si>
-  <si>
-    <t>My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they...My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they cater to the people treated at hospitals!! In this location, one could see where the handicapped door button was removed!! You're not losing heat or A/C, as there's an anteroom between the doors. Like I said,  I didn't have a great stay,  but Armand saved you from losing my company's business by being exceptional at his job!!MoreShow less</t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Plano Parkway, responded to this reviewResponded October 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 17, 2017</t>
-  </si>
-  <si>
-    <t>My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they...My suite was nice. A granola bar or HEAVILY preserved muffin does not a breakfast make (especially when it's the same 6 muffins of only ONE flavor). Armand was BEYOND helpful!!! Due to a large dog across the hall from me, I got ZERO rest one weekend &amp; started packing my things to leave, but Armand went above &amp; beyond the call of duty to try to get a hold of the owner, &amp; convinced me to stay.  Perhaps all the pet people should be in the same wing, that way they do not disturb those of us who DON'T travel with pets. Also, those owners should not be allowed to be away from the hotel for 16hrs to let their dogs howl the whole time! Any time I needed something, I waited for Armand or Alfred, because they were most helpful. Loni is downright rude!!! Being that I stayed there for 8 weeks, customer service was important!! I don't think there was even ONE occasion that Armand or Alfred let me down. I still think Shideh should give me a free weekend for all the problems I had there. You advertise that you're "handicap accessible, " but you don't have automatic doors to the outside. My friend in a wheelchair had to call me from outside to get in!! This is not a problem just in Plano. ALL the ESAs across the country are manual door buildings!! And they cater to the people treated at hospitals!! In this location, one could see where the handicapped door button was removed!! You're not losing heat or A/C, as there's an anteroom between the doors. Like I said,  I didn't have a great stay,  but Armand saved you from losing my company's business by being exceptional at his job!!More</t>
-  </si>
-  <si>
-    <t>Tisha P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r531111066-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -645,9 +751,6 @@
     <t>I have had the pleasure of staying at Extended stay for the last few months due to a work project.  I was hesitant of staying but when I walked in, I was greeted with nothing but kindness.  ARMAND made me feel so special.  He made sure that I was completely satisfied each time that I visited the location.  One time I showed up and Priceline had not sent over my reservation.  I was tired and hungry but Armand saved the day.  I was so frustrated but he turned that around.  Thank you Armand for being the best front desk person I have EVER came into encounter with.  He is GREAT and definitely someone you want to have greet all of your customers.  Keep up the good work Armand.More</t>
   </si>
   <si>
-    <t>GiriBhat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r525016191-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -672,9 +775,6 @@
     <t>We stayed there for a week. Situated in a nice place, grocery shop, restaurants were nearby. They are having nice kitchen. Stay was good. All staffs were nice. Rooms were bit small, that was problem I had.More</t>
   </si>
   <si>
-    <t>Kent H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r524217744-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -699,9 +799,6 @@
     <t>I've stayed at this hotel at least 10 times in the last 6 months. Overall, it works fine for me. The layout of the rooms is great, but the countertops, cooktops, refrigerators, and bathrooms are pretty old and a little tired. Good value for the money, though. You can save some money by reserving it through Priceline. Look for a hotel in West Plano.More</t>
   </si>
   <si>
-    <t>that1guyralph</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r520474536-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -729,9 +826,6 @@
     <t>The front desk staff were attentive and very friendly especially Armand anything we asked for he would get he is definitely a casebook example of someone who deserves a raise.  Now comes that but, after the first couple of times my room was not cleaned to my satisfaction, which Armand explained to me that they hired an agency to help out since their regular couldn't handle this many people. So other than that a great stay thanks ArmandMore</t>
   </si>
   <si>
-    <t>rell27</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r520372444-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -750,9 +844,6 @@
     <t>Great place to stay. The staff made me feel at home. Armand Wilson is a great representation of what great hotel personel is. Went over and beyond to meet all wishes. I would recommend if your looking for a great quiet place to rest this is the place to come. The bond they made with the staff makes it hard to leave. More</t>
   </si>
   <si>
-    <t>Jay B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r520231295-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -774,9 +865,6 @@
     <t>My experience with the hotel was all pluses. When I first arrived I was greeted by Armand. Armand has great skills with are group and when it was an incident he handle professional! Thanks Armand!!!! Lani was fantastic! It was great to see her greet are group with a smile and a good morning. Always alert, focused, and committed to us.Alfred was very knowledgeable area the Dallas area which is great concierge service. Speaking with him made the Stay because he was my go to guy!Tomasita overnight was amazing!!!! Always busy making sure are Stay was great! I would like to thank them for their time efforts and service....            Joseph BartlettMore</t>
   </si>
   <si>
-    <t>glorilugo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r515689418-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -801,9 +889,6 @@
     <t>I cant have big complaints about this hotel. Staff is more than amazing!!!  AReady to help. We booked a studio with a bed and sofa and results small,on a swap they found us a bigger one. Company just need to put some love ....More</t>
   </si>
   <si>
-    <t>HamboneJenkins</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r509084326-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -828,9 +913,6 @@
     <t>The front desk people were all awesome.  Very friendly and affordable.  Pool was well maintained.  Our room was spacious and pretty clean.  Location is nice and close to the highway and restaurants.  Also near places to shop.  This review is in comparison to other extended stay type places with price taken into consideration.More</t>
   </si>
   <si>
-    <t>564kailah</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r505311931-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -855,9 +937,6 @@
     <t>Overall good experience, staff worked with me during my stay. The breakfast wasn't too great. But the price was great and everything was working how it should in the room. The main reason I stayed here was pet friendly. And if I ever bring my dog with me back to this area I will stay again More</t>
   </si>
   <si>
-    <t>jacob c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r504950805-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -882,9 +961,6 @@
     <t>I found myself in a situation where I needed a great room last minute. So I booked this hotel, knowing the quality is always good with Extended Stay hotels. Check in was a breeze with Armand working behind the front desk. He was very professional and helped me check in without any hassle whatsoever. He was very friendly and made me feel at ease. The room is a good deal for the price, in my opinion. Everything was clean, and in great shape. The bed was comfortable too. More</t>
   </si>
   <si>
-    <t>Doug G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r504192246-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -909,9 +985,6 @@
     <t>Everything in the area was full and this was almost last option. I am afraid this falls far short of pleasant. The room was actually ok in terms of quietness. Cheap bedding and the lobby is pretty shabby. It was cheap which was really the only plus. More</t>
   </si>
   <si>
-    <t>375karthikeyanc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r503756497-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -936,9 +1009,6 @@
     <t>Compact Luxury room with accessible restaurants near by with different options.  Have friendly liquor shop at walkable distance with TACO bell and Jack-in the box as his neighbors. Happy stay with good environment.More</t>
   </si>
   <si>
-    <t>Franco S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r502850227-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -966,9 +1036,6 @@
     <t>I had a great time there. The staff was friendly and helpful. I wish there could have been more washers and driers. Other than that my experience was good. No complaints at all. I would stay there again.More</t>
   </si>
   <si>
-    <t>ccdickey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r501774794-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -993,9 +1060,6 @@
     <t>The staff was amazing and I cannot stress that enough. The room was far less than amazing. I booked a suite and the bedroom didn't even have an AC unit. The AC unit for the suite was on a timer and would only run for 20 minutes and then cut off for 40 minutes. The temperature in the bedroom never got below 80 (in July, in Texas...). They advertise a fully stocked kitchen, but anything you need you must ask for. Even utensils were not provided. I appreciate the staff, but I would not recommend this hotel to my enemy. I wish I would have stayed at the motel 6 next door. It had to be nicer.....More</t>
   </si>
   <si>
-    <t>amber1913</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r495137475-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +1084,6 @@
     <t>This has been a joy and the easiest stay ever! Lani at the front desk do does so much when we need her very fast and answers all questions or concerns we may have. She has been a blessing. Also, Carla may be the best room-maid in the world! Never lose either of these ladies. Great experience.More</t>
   </si>
   <si>
-    <t>Omari P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r492573355-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1047,9 +1108,6 @@
     <t>Relocating for work purposes. This has been a finiancially and comfortable transition thanks to extended stay. I would definitely recommend to other guest in the future. The hotel is situated in a safe area, close to local stores and restaurants.More</t>
   </si>
   <si>
-    <t>paradisofamily</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r490096751-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1077,9 +1135,6 @@
     <t>Stayed at this hotel while working away from home.  The staff, in particular Lani, were very helpful and accommodating.  I will stay here again when my job requires me to return to Plano.  I enjoy having the kitchen in my room and also enjoy the daily breakfast the hotel provides.More</t>
   </si>
   <si>
-    <t>Josh38th</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r489275706-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1104,9 +1159,6 @@
     <t>I recently place a review about our travel to Extended Stay America Dallas Hotel.In my review it was excellent until a week ago when I was visited by an unpleasant knock at door by two men saying they have had complaints about weed smell in the hall way.I permitted them to come in and check my room out .Sr i stated we don't smoke in here at all let along weed so they told me about complaints coming from other guests but never said my room was single out....May 30 about 2:45 Im coming from out side and the individual that came week prior stated that my room has not been clean for a while and he wanted to inspect so i let him in first thing he said was that he smell cigarette smoke.how can that be when i just came from out side we both arrive at door at same time.My key card didn't work so I allowed the house keeper who was in the hallway about foot from my room to open the door.No walk thru are inspecting he single out I smell smoke no I have insincent that i burn have permission from front desk trying to explain at same time his employe is watching him not fully come in.Pay 250 for smoking fee no what smoking he replied I have been smoking for years ok could you have smell that on my shirt...last week you...I recently place a review about our travel to Extended Stay America Dallas Hotel.In my review it was excellent until a week ago when I was visited by an unpleasant knock at door by two men saying they have had complaints about weed smell in the hall way.I permitted them to come in and check my room out .Sr i stated we don't smoke in here at all let along weed so they told me about complaints coming from other guests but never said my room was single out....May 30 about 2:45 Im coming from out side and the individual that came week prior stated that my room has not been clean for a while and he wanted to inspect so i let him in first thing he said was that he smell cigarette smoke.how can that be when i just came from out side we both arrive at door at same time.My key card didn't work so I allowed the house keeper who was in the hallway about foot from my room to open the door.No walk thru are inspecting he single out I smell smoke no I have insincent that i burn have permission from front desk trying to explain at same time his employe is watching him not fully come in.Pay 250 for smoking fee no what smoking he replied I have been smoking for years ok could you have smell that on my shirt...last week you didn't smell cigarette you said weed..Cleaning lady in hall was said out loud he is picking on you all morning he has been accusing guest of smoking...Im only one that got out...Ok corporate reply with in 2days..Lawyer next...More</t>
   </si>
   <si>
-    <t>Claudio C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r478074153-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1134,9 +1186,6 @@
     <t>If it wasn't for the staff, I would never choose this hotel. The people working here are the only saving grace. In particular Lani, Armand, Desire and another lady with blond hair make the guests feel welcomed and treat you with the greatest respect. The problem is with the corporate side. Their cost cutting measures are horrible. The towels, if they have any are dingy and look like they have seen better days. They seem to run out of basic supplies like toilet paper and shampoo and soap. The kitchenette is greasy and the rooms have a stale food smell that's hard to mask. The maids are very nice and they make do with what they have. I want to be clear here, that the problem was see is not the staff, but the company which has these very austere policies.More</t>
   </si>
   <si>
-    <t>MichelleEdmonson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r465834813-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1155,9 +1204,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>DealHawk2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r463820310-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1179,9 +1225,6 @@
     <t>I've had some not-so-great experiences with ESA's in other places but this one was top of the line. Customer service was attentive, had everything ready, the wifi worked easily and the clientele was professional.This is located across the street from the heart hospital and there is even a second ESA around the corner.Room was clean, bed was comfortable. Kitchenette looked a little worn but I didn't try to cook. Shower had lots of water pressure. Towels were okay. As with all ESAs, you don't get daily maid service.Breakfast is not hot but 'grab and go', so that's disappointing, but the bars and oatmeal and coffee were name brand. And there were cookies and water bottles in the afternoon when I arrived.Pool was not tended to in February and the exercise room consisted of one step machine and one treadmill. Did not try them.This meets my expectations for a Priceline 2.5 star place.More</t>
   </si>
   <si>
-    <t>KirksMighty4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r459991239-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1206,9 +1249,6 @@
     <t>Our whole stay here has been incredibel because of Lani Thomas and her excellent customer service. Always smiling and always busy and calm under any circumstance when I needed her help. Antonio, I guess he is a traveling manager between two hotels never fails to help. Always prepared to help!! And Tammy, a new boss lady I've seen in action has straightened every thing out and really got the hotel looking and feeling better too. What a great teamMore</t>
   </si>
   <si>
-    <t>nsh192017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r455218506-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1236,9 +1276,6 @@
     <t>I want to say thank you for the great services at this location. The staff is very nice and the front desk clerk has a very beautiful attitude and  was concern about how well I enjoyed the stay. Will be back again. I was treated like I was at a five star hotel!!!More</t>
   </si>
   <si>
-    <t>Oscar Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r455094405-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1255,9 +1292,6 @@
   </si>
   <si>
     <t>This place is great to stay love the staff and management  was very helpful , they answer my every  question even when i ask many, they made my stay fell like home definitely one of the best hotels to stayMore</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r452113008-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -1288,9 +1322,6 @@
 And please train your people to react differently when they are asked about a concern....The place is under transitional management. That means there's no person to really "own" the management right now. So how that plays out is that if one mentions that trash behind the building is not being picked up, leaves by the doors are not cleaned up, tickets put in to get things fixed in the room aren't handled in a timely manner, and the housekeeping one paid for doesn't get done, then it can be quickly blamed on the fact that there's no manager right now. Pretty cool! They are off the hook...When you walk in the lobby smells like people have smoked there. Probably left from the old days but there are ionizers that can fix that. Desk help is defensive, bordering on rude. They all need a course on delightful customer service (read Steve Zipkoff's book on it or hire him for a training). One bright light is Jynelle. She's the 3pm - 11pm desk person. She is good at delightful customer service! Thanks, Jynelle!Extended Stay, does it really make sense to hire maintenance people to only work Monday thru Friday when you run a 24/7 business? People are messy every day, not only during the week days. You won't get better reviews until you change your business model and rethink your staffing model. Going cheap costs in the long run. And please train your people to react differently when they are asked about a concern. When all of your people blame management for not being able to solve simple problems like getting a new light bulb in a timely manner or getting hallway trash picked up, then you have a training issue. And your customers are left without good customer service. More</t>
   </si>
   <si>
-    <t>N M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r451487470-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1330,9 +1361,6 @@
     <t>First room assigned too-fleas and toilet going off every few minutes.....switched to another room-barking dogs and hallway smells bad-stairwell filthy with trash and dirty clothes...Do they ever clean this place? Never again!</t>
   </si>
   <si>
-    <t>Heather K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r413917355-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1360,9 +1388,6 @@
     <t>Nice quiet place to stay..checked in with no hassle...room was non-smoking and smelled very clean. Booked a single studio. It was big. Two windows were nice. Slept with them open and it was quiet. Bathroom was immaculate. Kitchen had everything I needed to cook a nice home cooked meal. Big dining table which I doubled as a work table and a large couch. Bed was a cozy spot. I intend to stay here each time I visit this area. And there is a IHOP right across the street. And most importantly there wasn't even an ant or bed bug or even any spider monkeys on the floor so do not believe any stories you read about it being dirty. Its spotless and clean. A+More</t>
   </si>
   <si>
-    <t>QueenCG62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r402855107-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1388,9 +1413,6 @@
   </si>
   <si>
     <t>Making a move to Dallas was not easy. But starting with check in, I felt right at home. Everyday someone asked if there was anything I needed or help with. The customer service is excellent, even at the time of check in. If you need a hotel for longer than two weeks, this is an excellent option and this site will not disappoint.More</t>
-  </si>
-  <si>
-    <t>Heather H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r382201129-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -1418,7 +1440,7 @@
 Dislikes: 
 - Condition of the room: Cabinets were original and the cheapest, worst apartment MDF cabinets you all remember if you lived in an apartment circa 1996.  Bathtub was a fiberglass unit with cracks that allowed water to seep into the wall.  Both needed replacing BADLY
 - With all the spring rain, we began to notice a gap between the wall and window and started smelling mold, plus we saw evidence of a water leak on the drywall
-- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest...We stayed for two months while waiting to move into a house.  Frankly, we chose this property for four reasons:1. The location further North off the Tollway wasn't available2. Extended Stays accept pets3. The price per night was significantly less than the Residence Inn4. Location, location, locationLikes:- The staff was excellent.  They are hardwork, eager to please, and really did make us feel welcome.  Any issues within their control were done to the best of their ability- Coffee.  Loved their coffee in the lobby every day- Location. Close to plenty of shops and restaurants (and given the condition of the kitchen in our unit, we ate out all but TWICE in 60 days).- They did replace the mattress during our stay as part of refurb.  Unit already had new flooring, carpet, bed, and couch.Dislikes: - Condition of the room: Cabinets were original and the cheapest, worst apartment MDF cabinets you all remember if you lived in an apartment circa 1996.  Bathtub was a fiberglass unit with cracks that allowed water to seep into the wall.  Both needed replacing BADLY- With all the spring rain, we began to notice a gap between the wall and window and started smelling mold, plus we saw evidence of a water leak on the drywall- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest being more explicit upon check-in on those rules as there were some issues initially- The color scheme makes the room feel dark and depressing, especially if you're there any length of time- The burner pans were FILTHY and should have been replaced prior to our check in.  I love to cook and didn't feel comfortable cooking there, especially after I saw roaches in the first couple of days.  (They did spray for pests during our stay and that helped).- The absolute worst was the poorly engineered A/C.  The unit is in the living room area and a fan is between the living and bedroom.  However, it's so high on the wall that it doesn't circulate air well.  Our bedroom never cooled down sufficiently at night.  Hot room = poor sleep for 60 days = cranky guests.  Cranky guests leave poor reviews.  Also, it didn't impact us, but if you have a room overlooking the courtyard/pool and it's a Friday or Saturday, BEWARE of noise.  People would be out there until all hours making noise and drinking.  Came in around 1 am one Saturday and the party was still going strong.  Saw plenty of evidence the next day in the various...MoreShow less</t>
+- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest...We stayed for two months while waiting to move into a house.  Frankly, we chose this property for four reasons:1. The location further North off the Tollway wasn't available2. Extended Stays accept pets3. The price per night was significantly less than the Residence Inn4. Location, location, locationLikes:- The staff was excellent.  They are hardwork, eager to please, and really did make us feel welcome.  Any issues within their control were done to the best of their ability- Coffee.  Loved their coffee in the lobby every day- Location. Close to plenty of shops and restaurants (and given the condition of the kitchen in our unit, we ate out all but TWICE in 60 days).- They did replace the mattress during our stay as part of refurb.  Unit already had new flooring, carpet, bed, and couch.Dislikes: - Condition of the room: Cabinets were original and the cheapest, worst apartment MDF cabinets you all remember if you lived in an apartment circa 1996.  Bathtub was a fiberglass unit with cracks that allowed water to seep into the wall.  Both needed replacing BADLY- With all the spring rain, we began to notice a gap between the wall and window and started smelling mold, plus we saw evidence of a water leak on the drywall- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest being more explicit upon check-in on those rules as there were some issues initially- The color scheme makes the room feel dark and depressing, especially if you're there any length of time- The burner pans were FILTHY and should have been replaced prior to our check in.  I love to cook and didn't feel comfortable cooking there, especially after I saw roaches in the first couple of days.  (They did spray for pests during our stay and that helped).- The absolute worst was the poorly engineered A/C.  The unit is in the living room area and a fan is between the living and bedroom.  However, it's so high on the wall that it doesn't circulate air well.  Our bedroom never cooled down sufficiently at night.  Hot room = poor sleep for 60 days = cranky guests.  Cranky guests leave poor reviews.  Also, it didn't impact us, but if you have a room overlooking the courtyard/pool and it's a Friday or Saturday, BEWARE of noise.  People would be out there until all hours making noise and drinking.  Came in around 1 am one Saturday and the party was still going strong.  Saw plenty of evidence the next day in the various overflowing trash cans in that area.  The room condition is something that I feel the management should be checking and remedying.  After our first week, I did a review and reported all issues we identified.  No offer to move rooms or make changes.  Frankly, all of those maintenance issues were far more significant that something I could have gotten the maintenance guy to fix.MoreShow less</t>
   </si>
   <si>
     <t>May 2016</t>
@@ -1443,10 +1465,7 @@
 Dislikes: 
 - Condition of the room: Cabinets were original and the cheapest, worst apartment MDF cabinets you all remember if you lived in an apartment circa 1996.  Bathtub was a fiberglass unit with cracks that allowed water to seep into the wall.  Both needed replacing BADLY
 - With all the spring rain, we began to notice a gap between the wall and window and started smelling mold, plus we saw evidence of a water leak on the drywall
-- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest...We stayed for two months while waiting to move into a house.  Frankly, we chose this property for four reasons:1. The location further North off the Tollway wasn't available2. Extended Stays accept pets3. The price per night was significantly less than the Residence Inn4. Location, location, locationLikes:- The staff was excellent.  They are hardwork, eager to please, and really did make us feel welcome.  Any issues within their control were done to the best of their ability- Coffee.  Loved their coffee in the lobby every day- Location. Close to plenty of shops and restaurants (and given the condition of the kitchen in our unit, we ate out all but TWICE in 60 days).- They did replace the mattress during our stay as part of refurb.  Unit already had new flooring, carpet, bed, and couch.Dislikes: - Condition of the room: Cabinets were original and the cheapest, worst apartment MDF cabinets you all remember if you lived in an apartment circa 1996.  Bathtub was a fiberglass unit with cracks that allowed water to seep into the wall.  Both needed replacing BADLY- With all the spring rain, we began to notice a gap between the wall and window and started smelling mold, plus we saw evidence of a water leak on the drywall- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest being more explicit upon check-in on those rules as there were some issues initially- The color scheme makes the room feel dark and depressing, especially if you're there any length of time- The burner pans were FILTHY and should have been replaced prior to our check in.  I love to cook and didn't feel comfortable cooking there, especially after I saw roaches in the first couple of days.  (They did spray for pests during our stay and that helped).- The absolute worst was the poorly engineered A/C.  The unit is in the living room area and a fan is between the living and bedroom.  However, it's so high on the wall that it doesn't circulate air well.  Our bedroom never cooled down sufficiently at night.  Hot room = poor sleep for 60 days = cranky guests.  Cranky guests leave poor reviews.  Also, it didn't impact us, but if you have a room overlooking the courtyard/pool and it's a Friday or Saturday, BEWARE of noise.  People would be out there until all hours making noise and drinking.  Came in around 1 am one Saturday and the party was still going strong.  Saw plenty of evidence the next day in the various...More</t>
-  </si>
-  <si>
-    <t>Cricket820</t>
+- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest...We stayed for two months while waiting to move into a house.  Frankly, we chose this property for four reasons:1. The location further North off the Tollway wasn't available2. Extended Stays accept pets3. The price per night was significantly less than the Residence Inn4. Location, location, locationLikes:- The staff was excellent.  They are hardwork, eager to please, and really did make us feel welcome.  Any issues within their control were done to the best of their ability- Coffee.  Loved their coffee in the lobby every day- Location. Close to plenty of shops and restaurants (and given the condition of the kitchen in our unit, we ate out all but TWICE in 60 days).- They did replace the mattress during our stay as part of refurb.  Unit already had new flooring, carpet, bed, and couch.Dislikes: - Condition of the room: Cabinets were original and the cheapest, worst apartment MDF cabinets you all remember if you lived in an apartment circa 1996.  Bathtub was a fiberglass unit with cracks that allowed water to seep into the wall.  Both needed replacing BADLY- With all the spring rain, we began to notice a gap between the wall and window and started smelling mold, plus we saw evidence of a water leak on the drywall- There was a lack of clarity about some policies relating to pets and room cleaning.  We would suggest being more explicit upon check-in on those rules as there were some issues initially- The color scheme makes the room feel dark and depressing, especially if you're there any length of time- The burner pans were FILTHY and should have been replaced prior to our check in.  I love to cook and didn't feel comfortable cooking there, especially after I saw roaches in the first couple of days.  (They did spray for pests during our stay and that helped).- The absolute worst was the poorly engineered A/C.  The unit is in the living room area and a fan is between the living and bedroom.  However, it's so high on the wall that it doesn't circulate air well.  Our bedroom never cooled down sufficiently at night.  Hot room = poor sleep for 60 days = cranky guests.  Cranky guests leave poor reviews.  Also, it didn't impact us, but if you have a room overlooking the courtyard/pool and it's a Friday or Saturday, BEWARE of noise.  People would be out there until all hours making noise and drinking.  Came in around 1 am one Saturday and the party was still going strong.  Saw plenty of evidence the next day in the various overflowing trash cans in that area.  The room condition is something that I feel the management should be checking and remedying.  After our first week, I did a review and reported all issues we identified.  No offer to move rooms or make changes.  Frankly, all of those maintenance issues were far more significant that something I could have gotten the maintenance guy to fix.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r354906878-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -1476,9 +1495,6 @@
     <t>We chose this hotel because my sister was having heart surgery &amp; this hotel was right across the street from Plano Heart Hospital. We stayed 2 nights. The staff was very polite &amp; helpful.  If we needed or wanted something, they got it right away.  The room was not exactly what I thought it would be, but it was clean. The a/c was very loud.  We had to turn up the TV to hear it when the a/c was one, but when it cut off, we had to turn the TV back down.  The fridge leaked on the inside and there was food left from the previous guest, but other than that it was ok.  Because we told the front desk about the food in the fridge, they refunded us one of the nights.  The manager apologized for not making sure the room was as clean as they would like it to be before we got there.More</t>
   </si>
   <si>
-    <t>mrsconsumer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r353808461-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1503,9 +1519,6 @@
     <t>Up checking in the clerk was extremely pleasant and helpful. The lobby was clean and well lit. Entering our room was our 1st disappointment the size of the room and the bed was smaller then expected as it was only a full size. The kitchen was not pre-stocked everything we expected to be stocked in the kitchen we had to retrieve from the front desk ourselves. Upon examining the kitchen pack they did not provide dish soap or coffee filters or a dish cloth or clean sponge. We have never stayed at a extended stay hotel that the kitchen wasn't pre-stocked. Their reasoning was because they have had guests take Kitchen items when checking out. This bothered us because everytime we went to pick up an item they didn't ask our room number. So what difference does it make. The beds were hard and uncomfortable we did not get a good night sleep. Our family booked 3 additional rooms and had the same problem especially the lack of comfort in their beds also. In my sister's room she found food in her refrigerator from previous guests. The only postive side of our stay is that rooms were clean and the staff was extremely pleasant, helpful and apologic. If this is the way all the Extended Stay facilities operate we will not be a guest at this chain in the future.More</t>
   </si>
   <si>
-    <t>Matt12567578</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r349478330-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1533,9 +1546,6 @@
     <t>I just have to give you a great review.  From the moment I checked in until the end of my stay was memorable and fabulous. I usually don't write a review unless it was a bad experience,  but this hotel has to be recognized for its superior level of service and quality.  Everything was new, clean and organized.  The entire staff was friendly and helpful. I am definitely going to stay here next time I am in town. More</t>
   </si>
   <si>
-    <t>Debbijoolson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r339741412-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1563,9 +1573,6 @@
     <t>Was in Plano for work, stayed for two months, the front desk was very friendly and helpful.  The housekeeping left much to be desired.  Had to request sheets be changed at least every other week and not sure floors were even vacuumed weekly.  Bathroom was given a cursory cleaning so all in all not impressed with housekeeping.More</t>
   </si>
   <si>
-    <t>jmgraffix</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r336268243-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1579,7 +1586,7 @@
   </si>
   <si>
     <t>OMG!  This place was the worst hotel experience of my entire life, and I don't travel much!!  If you're already here, stay away from room 124 ... BED BUGS!!  Or just skip this hotel chain altogether. I stayed there last night :-(  ... it was nearly 12am after a long day of work and I had finally relaxed in bed with a game on my iPad (and no cable/satellite TV btw, just local non-HD channels - REALLY?) and close to falling asleep, when suddenly I started itching. I got up to head to the bathroom and noticed a bed bug on my shirt. Then I ran back to the bed to check under the pillows and there were many ... ughh!!  So immediately and furiously, I go to the front desk clerk and bring him to the room to show him the bugs on the bed. Thankfully the only good about my stay was that the clerk did put me in a room without bed bugs, paid for my laundry to wash all the bugs out, and the General Manger refunded me in-full for the weekly rate amount. So after a shower, I was up till at least 3:45am finishing laundry and had to be to work in McKinney by 8:30am. I gladly left this hotel for another hotel chain that is cleaner and newer with updated features and styling!!
-To add to the LACK in this hotel (issues the...OMG!  This place was the worst hotel experience of my entire life, and I don't travel much!!  If you're already here, stay away from room 124 ... BED BUGS!!  Or just skip this hotel chain altogether. I stayed there last night :-(  ... it was nearly 12am after a long day of work and I had finally relaxed in bed with a game on my iPad (and no cable/satellite TV btw, just local non-HD channels - REALLY?) and close to falling asleep, when suddenly I started itching. I got up to head to the bathroom and noticed a bed bug on my shirt. Then I ran back to the bed to check under the pillows and there were many ... ughh!!  So immediately and furiously, I go to the front desk clerk and bring him to the room to show him the bugs on the bed. Thankfully the only good about my stay was that the clerk did put me in a room without bed bugs, paid for my laundry to wash all the bugs out, and the General Manger refunded me in-full for the weekly rate amount. So after a shower, I was up till at least 3:45am finishing laundry and had to be to work in McKinney by 8:30am. I gladly left this hotel for another hotel chain that is cleaner and newer with updated features and styling!!To add to the LACK in this hotel (issues the same for both rooms) ... (1) the shower head (in both rooms) does not stay still or fixed in the desired position, so there's a constant battle in keeping it from flooding the entire bathroom floor (no shower curb, floor is flat with no lip to keep the water in shower - BAD ENGINEERING!!). (2) The bathroom sink has no counter space, nor is there any counter space in the bathroom! (3) The counters and surfaces in the kitchenette were not wiped down very good, so who knows what was previously on there?!  (4) The bed bug room also must have had bugs on the 2-seater couch as well because I had changed shirts, tossed it on the couch, yet it had bed bugs on it before adding with my other laundry.Extended Stay, your franchise really needs to step up their game and redo everything with CLEANLINESS (room cleaning more than just once a week) • Update your facilities and technology (TVs offered only local channels, the signal was 4:3 ratio NTSC on HD TVs, and no cable/satellite - pathetic!!) • Refrigerators were all marked and dented • The weekly rate here for me was $590, while a nicer, cleaner La Quinta Inn with updated features &amp; styling with satellite TV has a weekly rate of only $489.Well... in the future, every hotel room that I ever check-in to will...MoreShow less</t>
+To add to the LACK in this hotel (issues the...OMG!  This place was the worst hotel experience of my entire life, and I don't travel much!!  If you're already here, stay away from room 124 ... BED BUGS!!  Or just skip this hotel chain altogether. I stayed there last night :-(  ... it was nearly 12am after a long day of work and I had finally relaxed in bed with a game on my iPad (and no cable/satellite TV btw, just local non-HD channels - REALLY?) and close to falling asleep, when suddenly I started itching. I got up to head to the bathroom and noticed a bed bug on my shirt. Then I ran back to the bed to check under the pillows and there were many ... ughh!!  So immediately and furiously, I go to the front desk clerk and bring him to the room to show him the bugs on the bed. Thankfully the only good about my stay was that the clerk did put me in a room without bed bugs, paid for my laundry to wash all the bugs out, and the General Manger refunded me in-full for the weekly rate amount. So after a shower, I was up till at least 3:45am finishing laundry and had to be to work in McKinney by 8:30am. I gladly left this hotel for another hotel chain that is cleaner and newer with updated features and styling!!To add to the LACK in this hotel (issues the same for both rooms) ... (1) the shower head (in both rooms) does not stay still or fixed in the desired position, so there's a constant battle in keeping it from flooding the entire bathroom floor (no shower curb, floor is flat with no lip to keep the water in shower - BAD ENGINEERING!!). (2) The bathroom sink has no counter space, nor is there any counter space in the bathroom! (3) The counters and surfaces in the kitchenette were not wiped down very good, so who knows what was previously on there?!  (4) The bed bug room also must have had bugs on the 2-seater couch as well because I had changed shirts, tossed it on the couch, yet it had bed bugs on it before adding with my other laundry.Extended Stay, your franchise really needs to step up their game and redo everything with CLEANLINESS (room cleaning more than just once a week) • Update your facilities and technology (TVs offered only local channels, the signal was 4:3 ratio NTSC on HD TVs, and no cable/satellite - pathetic!!) • Refrigerators were all marked and dented • The weekly rate here for me was $590, while a nicer, cleaner La Quinta Inn with updated features &amp; styling with satellite TV has a weekly rate of only $489.Well... in the future, every hotel room that I ever check-in to will never be the same for me - that is because of that nightmare, I will always check every room for bed bugs before ever setting any of my belongings down in the room.MoreShow less</t>
   </si>
   <si>
     <t>December 2015</t>
@@ -1592,10 +1599,7 @@
   </si>
   <si>
     <t>OMG!  This place was the worst hotel experience of my entire life, and I don't travel much!!  If you're already here, stay away from room 124 ... BED BUGS!!  Or just skip this hotel chain altogether. I stayed there last night :-(  ... it was nearly 12am after a long day of work and I had finally relaxed in bed with a game on my iPad (and no cable/satellite TV btw, just local non-HD channels - REALLY?) and close to falling asleep, when suddenly I started itching. I got up to head to the bathroom and noticed a bed bug on my shirt. Then I ran back to the bed to check under the pillows and there were many ... ughh!!  So immediately and furiously, I go to the front desk clerk and bring him to the room to show him the bugs on the bed. Thankfully the only good about my stay was that the clerk did put me in a room without bed bugs, paid for my laundry to wash all the bugs out, and the General Manger refunded me in-full for the weekly rate amount. So after a shower, I was up till at least 3:45am finishing laundry and had to be to work in McKinney by 8:30am. I gladly left this hotel for another hotel chain that is cleaner and newer with updated features and styling!!
-To add to the LACK in this hotel (issues the...OMG!  This place was the worst hotel experience of my entire life, and I don't travel much!!  If you're already here, stay away from room 124 ... BED BUGS!!  Or just skip this hotel chain altogether. I stayed there last night :-(  ... it was nearly 12am after a long day of work and I had finally relaxed in bed with a game on my iPad (and no cable/satellite TV btw, just local non-HD channels - REALLY?) and close to falling asleep, when suddenly I started itching. I got up to head to the bathroom and noticed a bed bug on my shirt. Then I ran back to the bed to check under the pillows and there were many ... ughh!!  So immediately and furiously, I go to the front desk clerk and bring him to the room to show him the bugs on the bed. Thankfully the only good about my stay was that the clerk did put me in a room without bed bugs, paid for my laundry to wash all the bugs out, and the General Manger refunded me in-full for the weekly rate amount. So after a shower, I was up till at least 3:45am finishing laundry and had to be to work in McKinney by 8:30am. I gladly left this hotel for another hotel chain that is cleaner and newer with updated features and styling!!To add to the LACK in this hotel (issues the same for both rooms) ... (1) the shower head (in both rooms) does not stay still or fixed in the desired position, so there's a constant battle in keeping it from flooding the entire bathroom floor (no shower curb, floor is flat with no lip to keep the water in shower - BAD ENGINEERING!!). (2) The bathroom sink has no counter space, nor is there any counter space in the bathroom! (3) The counters and surfaces in the kitchenette were not wiped down very good, so who knows what was previously on there?!  (4) The bed bug room also must have had bugs on the 2-seater couch as well because I had changed shirts, tossed it on the couch, yet it had bed bugs on it before adding with my other laundry.Extended Stay, your franchise really needs to step up their game and redo everything with CLEANLINESS (room cleaning more than just once a week) • Update your facilities and technology (TVs offered only local channels, the signal was 4:3 ratio NTSC on HD TVs, and no cable/satellite - pathetic!!) • Refrigerators were all marked and dented • The weekly rate here for me was $590, while a nicer, cleaner La Quinta Inn with updated features &amp; styling with satellite TV has a weekly rate of only $489.Well... in the future, every hotel room that I ever check-in to will...More</t>
-  </si>
-  <si>
-    <t>Michael C</t>
+To add to the LACK in this hotel (issues the...OMG!  This place was the worst hotel experience of my entire life, and I don't travel much!!  If you're already here, stay away from room 124 ... BED BUGS!!  Or just skip this hotel chain altogether. I stayed there last night :-(  ... it was nearly 12am after a long day of work and I had finally relaxed in bed with a game on my iPad (and no cable/satellite TV btw, just local non-HD channels - REALLY?) and close to falling asleep, when suddenly I started itching. I got up to head to the bathroom and noticed a bed bug on my shirt. Then I ran back to the bed to check under the pillows and there were many ... ughh!!  So immediately and furiously, I go to the front desk clerk and bring him to the room to show him the bugs on the bed. Thankfully the only good about my stay was that the clerk did put me in a room without bed bugs, paid for my laundry to wash all the bugs out, and the General Manger refunded me in-full for the weekly rate amount. So after a shower, I was up till at least 3:45am finishing laundry and had to be to work in McKinney by 8:30am. I gladly left this hotel for another hotel chain that is cleaner and newer with updated features and styling!!To add to the LACK in this hotel (issues the same for both rooms) ... (1) the shower head (in both rooms) does not stay still or fixed in the desired position, so there's a constant battle in keeping it from flooding the entire bathroom floor (no shower curb, floor is flat with no lip to keep the water in shower - BAD ENGINEERING!!). (2) The bathroom sink has no counter space, nor is there any counter space in the bathroom! (3) The counters and surfaces in the kitchenette were not wiped down very good, so who knows what was previously on there?!  (4) The bed bug room also must have had bugs on the 2-seater couch as well because I had changed shirts, tossed it on the couch, yet it had bed bugs on it before adding with my other laundry.Extended Stay, your franchise really needs to step up their game and redo everything with CLEANLINESS (room cleaning more than just once a week) • Update your facilities and technology (TVs offered only local channels, the signal was 4:3 ratio NTSC on HD TVs, and no cable/satellite - pathetic!!) • Refrigerators were all marked and dented • The weekly rate here for me was $590, while a nicer, cleaner La Quinta Inn with updated features &amp; styling with satellite TV has a weekly rate of only $489.Well... in the future, every hotel room that I ever check-in to will never be the same for me - that is because of that nightmare, I will always check every room for bed bugs before ever setting any of my belongings down in the room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r332467959-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -1622,9 +1626,6 @@
     <t>There is much better places to stay for the money and accommodations.  Old hotel and looks cheap.  Bed want comfortable.  There is only 1 person at the front desk that runs the entire hotel.  No business center.  No hair dryers.  If you ask for 1 they test the box of old dryers and most don't work.  No glasses to drink water in your room.  No coffee machine in the room.  You can easily find a better place.  Don't make the same mistake I did.More</t>
   </si>
   <si>
-    <t>shira76</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r332367341-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1643,9 +1644,6 @@
     <t>Had a very nice experience here. From check in with Shivel (not sure if I got that spelling right). The room was nice and clean. Thought it was very strange that for and extended stay, we had to request kitchen utensils, and there was not even a coffee maker in the room. Things that could have been better: don't understand why there was a pass thru from the kitchen to the bedroom? if someone uses kitchen while someone is in bed, the light is very disturbing.  Nice sitting area, again, would have been so much better, had there been some divider between the "bedroom" and the "living room", so anyone wanting to sleep, would not be disturbed by someone in that area. Did not bother to go down for breakfast. My husband said it was just some coffee and muffins and some granola bars.  Would recommend to others.More</t>
   </si>
   <si>
-    <t>mojo389</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r310769376-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1673,9 +1671,6 @@
     <t>be careful what room you get below the room above 124 make to much noise all day long not close to any thing  dirty only cleans once a week Only clean ones a week not a good breakfast bar same stuff every day no juiceMore</t>
   </si>
   <si>
-    <t>Stephanie_Israelstam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r286446230-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1697,9 +1692,6 @@
     <t>This place should be condemned or, better yet, burned to the ground. I booked a one-night stay here and ended up regretting it. The place smelled like a combination of stale cigarette butts and a gym locker room. Upon arrival, the front desk attendant had to go "check to see if the room is ready" before I could go in. She left the front desk and I stood in the lobby (which was as inviting as a federal women's prison waiting room) for 15 minutes while she was gone. She finally came back and said that the room was ready for me. What she was doing during that time, I'll never know but I can't imagine she actually opened to the door to my room to Hi! Coming over later. What do you need that isn't already being brought? Donna said there was a list or something?see what it looked like. If she had, she would have seen it was dirty, smelled TERRIBLE and was not ready for a guest, not event a rat on the street. This was without a doubt the grossest hotel I have ever seen. I did not get a refund for my five-minute stay but would have slept in my car before staying in that dilapidated and disgusting place. More</t>
   </si>
   <si>
-    <t>MideastWanderer2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r280975659-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
   </si>
   <si>
@@ -1725,9 +1717,6 @@
   </si>
   <si>
     <t>We were pleasantly surprised by how helpful and friendly the staff was and by how clean the room was.  We had recently stayed at much more expensive hotels in other cities and this hotel could easily compete with the more expensive hotels.Chase, the manager, was especially nice and even arranged to upgrade our room when there was a minor problem with our microwave.  I never saw one of the staff members being unpleasant or not smiling and engaging in conversation with the guests.Room supplies were readily available at the front desk and the "Grab and Go" breakfast was just enough to get the day started.I would highly recommend this Extended Stay America for anyone needing a hotel in the Dallas/Plano area.More</t>
-  </si>
-  <si>
-    <t>Raquel J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106505-r275428918-Extended_Stay_America_Dallas_Plano_Parkway-Plano_Texas.html</t>
@@ -2253,246 +2242,236 @@
       <c r="A2" t="n">
         <v>33693</v>
       </c>
-      <c r="B2" t="n">
-        <v>136142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33693</v>
       </c>
-      <c r="B3" t="n">
-        <v>136143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33693</v>
       </c>
-      <c r="B4" t="n">
-        <v>136144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33693</v>
       </c>
-      <c r="B5" t="n">
-        <v>136145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2504,346 +2483,304 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33693</v>
       </c>
-      <c r="B6" t="n">
-        <v>136146</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33693</v>
       </c>
-      <c r="B7" t="n">
-        <v>136147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
         <v>98</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>104</v>
-      </c>
-      <c r="X7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33693</v>
       </c>
-      <c r="B8" t="n">
-        <v>136148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33693</v>
       </c>
-      <c r="B9" t="n">
-        <v>136149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33693</v>
       </c>
-      <c r="B10" t="n">
-        <v>22459</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2855,73 +2792,65 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33693</v>
       </c>
-      <c r="B11" t="n">
-        <v>32595</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>4</v>
@@ -2930,271 +2859,259 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33693</v>
       </c>
-      <c r="B12" t="n">
-        <v>136150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33693</v>
       </c>
-      <c r="B13" t="n">
-        <v>136151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33693</v>
       </c>
-      <c r="B14" t="n">
-        <v>136152</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33693</v>
       </c>
-      <c r="B15" t="n">
-        <v>13492</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3206,68 +3123,68 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33693</v>
       </c>
-      <c r="B16" t="n">
-        <v>136153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
       <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -3277,61 +3194,53 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33693</v>
       </c>
-      <c r="B17" t="n">
-        <v>136154</v>
-      </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>195</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -3342,338 +3251,326 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33693</v>
       </c>
-      <c r="B18" t="n">
-        <v>136155</v>
-      </c>
-      <c r="C18" t="s">
-        <v>199</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33693</v>
       </c>
-      <c r="B19" t="n">
-        <v>136156</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33693</v>
       </c>
-      <c r="B20" t="n">
-        <v>85470</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
         <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33693</v>
       </c>
-      <c r="B21" t="n">
-        <v>136157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33693</v>
       </c>
-      <c r="B22" t="n">
-        <v>136158</v>
-      </c>
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3685,409 +3582,379 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33693</v>
       </c>
-      <c r="B23" t="n">
-        <v>17017</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33693</v>
       </c>
-      <c r="B24" t="n">
-        <v>136159</v>
-      </c>
-      <c r="C24" t="s">
-        <v>252</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33693</v>
       </c>
-      <c r="B25" t="n">
-        <v>136160</v>
-      </c>
-      <c r="C25" t="s">
-        <v>261</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33693</v>
       </c>
-      <c r="B26" t="n">
-        <v>136161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>270</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
         <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>233</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33693</v>
       </c>
-      <c r="B27" t="n">
-        <v>48189</v>
-      </c>
-      <c r="C27" t="s">
-        <v>279</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33693</v>
       </c>
-      <c r="B28" t="n">
-        <v>31151</v>
-      </c>
-      <c r="C28" t="s">
-        <v>288</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4099,557 +3966,527 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33693</v>
       </c>
-      <c r="B29" t="n">
-        <v>136162</v>
-      </c>
-      <c r="C29" t="s">
-        <v>297</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s">
-        <v>176</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33693</v>
       </c>
-      <c r="B30" t="n">
-        <v>136163</v>
-      </c>
-      <c r="C30" t="s">
-        <v>306</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="X30" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="Y30" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33693</v>
       </c>
-      <c r="B31" t="n">
-        <v>136164</v>
-      </c>
-      <c r="C31" t="s">
-        <v>316</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33693</v>
       </c>
-      <c r="B32" t="n">
-        <v>136165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>325</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>103</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33693</v>
       </c>
-      <c r="B33" t="n">
-        <v>136166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>334</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>310</v>
+      </c>
+      <c r="X33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y33" t="s">
         <v>312</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>340</v>
-      </c>
-      <c r="X33" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33693</v>
       </c>
-      <c r="B34" t="n">
-        <v>136167</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="X34" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="Y34" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33693</v>
       </c>
-      <c r="B35" t="n">
-        <v>136168</v>
-      </c>
-      <c r="C35" t="s">
-        <v>353</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="Y35" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33693</v>
       </c>
-      <c r="B36" t="n">
-        <v>60543</v>
-      </c>
-      <c r="C36" t="s">
-        <v>362</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="O36" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4659,268 +4496,258 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="X36" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="Y36" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33693</v>
       </c>
-      <c r="B37" t="n">
-        <v>136169</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>2</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
       <c r="Y37" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33693</v>
       </c>
-      <c r="B38" t="n">
-        <v>136170</v>
-      </c>
-      <c r="C38" t="s">
-        <v>379</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>351</v>
+      </c>
+      <c r="X38" t="s">
+        <v>352</v>
+      </c>
       <c r="Y38" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33693</v>
       </c>
-      <c r="B39" t="n">
-        <v>136171</v>
-      </c>
-      <c r="C39" t="s">
-        <v>387</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="J39" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="O39" t="s">
-        <v>103</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="X39" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="Y39" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33693</v>
       </c>
-      <c r="B40" t="n">
-        <v>136172</v>
-      </c>
-      <c r="C40" t="s">
-        <v>396</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4929,60 +4756,56 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="X40" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="Y40" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33693</v>
       </c>
-      <c r="B41" t="n">
-        <v>64029</v>
-      </c>
-      <c r="C41" t="s">
-        <v>406</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4994,251 +4817,249 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="X41" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="Y41" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33693</v>
       </c>
-      <c r="B42" t="n">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>413</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="O42" t="s">
-        <v>139</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
       <c r="Y42" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33693</v>
       </c>
-      <c r="B43" t="n">
-        <v>136173</v>
-      </c>
-      <c r="C43" t="s">
-        <v>420</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="J43" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>426</v>
-      </c>
-      <c r="X43" t="s">
-        <v>427</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33693</v>
       </c>
-      <c r="B44" t="n">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>413</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33693</v>
       </c>
-      <c r="B45" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C45" t="s">
-        <v>434</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5250,65 +5071,61 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="X45" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="Y45" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33693</v>
       </c>
-      <c r="B46" t="n">
-        <v>136174</v>
-      </c>
-      <c r="C46" t="s">
-        <v>444</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="J46" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="K46" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="L46" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="O46" t="s">
-        <v>176</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
       <c r="R46" t="n">
         <v>5</v>
       </c>
@@ -5321,265 +5138,239 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="X46" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="Y46" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33693</v>
       </c>
-      <c r="B47" t="n">
-        <v>18150</v>
-      </c>
-      <c r="C47" t="s">
-        <v>454</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="O47" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="X47" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="Y47" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33693</v>
       </c>
-      <c r="B48" t="n">
-        <v>136175</v>
-      </c>
-      <c r="C48" t="s">
-        <v>464</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="J48" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="K48" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="L48" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>103</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>4</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>471</v>
-      </c>
-      <c r="X48" t="s">
-        <v>472</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33693</v>
       </c>
-      <c r="B49" t="n">
-        <v>136176</v>
-      </c>
-      <c r="C49" t="s">
-        <v>474</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="J49" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="K49" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="L49" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="X49" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="Y49" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33693</v>
       </c>
-      <c r="B50" t="n">
-        <v>136177</v>
-      </c>
-      <c r="C50" t="s">
-        <v>483</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>488</v>
+        <v>442</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>489</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5590,333 +5381,313 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>490</v>
-      </c>
-      <c r="X50" t="s">
-        <v>491</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33693</v>
       </c>
-      <c r="B51" t="n">
-        <v>136178</v>
-      </c>
-      <c r="C51" t="s">
-        <v>493</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="J51" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="K51" t="s">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="L51" t="s">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="X51" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="Y51" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33693</v>
       </c>
-      <c r="B52" t="n">
-        <v>136179</v>
-      </c>
-      <c r="C52" t="s">
-        <v>503</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="J52" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="K52" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="L52" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="X52" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="Y52" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33693</v>
       </c>
-      <c r="B53" t="n">
-        <v>228</v>
-      </c>
-      <c r="C53" t="s">
-        <v>513</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="J53" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="X53" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="Y53" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33693</v>
       </c>
-      <c r="B54" t="n">
-        <v>136180</v>
-      </c>
-      <c r="C54" t="s">
-        <v>522</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
       <c r="J54" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="K54" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="L54" t="s">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>475</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="n">
         <v>4</v>
       </c>
-      <c r="N54" t="s">
-        <v>509</v>
-      </c>
-      <c r="O54" t="s">
-        <v>139</v>
-      </c>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>476</v>
+      </c>
+      <c r="X54" t="s">
+        <v>477</v>
+      </c>
       <c r="Y54" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33693</v>
       </c>
-      <c r="B55" t="n">
-        <v>136181</v>
-      </c>
-      <c r="C55" t="s">
-        <v>529</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="J55" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="K55" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="L55" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="O55" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5928,60 +5699,56 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="X55" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="Y55" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33693</v>
       </c>
-      <c r="B56" t="n">
-        <v>136182</v>
-      </c>
-      <c r="C56" t="s">
-        <v>539</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="J56" t="s">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="K56" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="L56" t="s">
-        <v>544</v>
+        <v>491</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="O56" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5992,146 +5759,516 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>493</v>
+      </c>
+      <c r="X56" t="s">
+        <v>494</v>
+      </c>
       <c r="Y56" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33693</v>
       </c>
-      <c r="B57" t="n">
-        <v>136183</v>
-      </c>
-      <c r="C57" t="s">
-        <v>547</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="J57" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="K57" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="L57" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="O57" t="s">
-        <v>139</v>
-      </c>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="X57" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="Y57" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33693</v>
       </c>
-      <c r="B58" t="n">
-        <v>136184</v>
-      </c>
-      <c r="C58" t="s">
-        <v>557</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="J58" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="K58" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="L58" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="O58" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
         <v>4</v>
       </c>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>511</v>
+      </c>
+      <c r="X58" t="s">
+        <v>512</v>
+      </c>
       <c r="Y58" t="s">
-        <v>564</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33693</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>514</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>515</v>
+      </c>
+      <c r="J59" t="s">
+        <v>516</v>
+      </c>
+      <c r="K59" t="s">
+        <v>517</v>
+      </c>
+      <c r="L59" t="s">
+        <v>518</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>510</v>
+      </c>
+      <c r="O59" t="s">
+        <v>172</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>519</v>
+      </c>
+      <c r="X59" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33693</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>522</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>523</v>
+      </c>
+      <c r="J60" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" t="s">
+        <v>525</v>
+      </c>
+      <c r="L60" t="s">
+        <v>526</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>510</v>
+      </c>
+      <c r="O60" t="s">
+        <v>172</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33693</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>529</v>
+      </c>
+      <c r="J61" t="s">
+        <v>530</v>
+      </c>
+      <c r="K61" t="s">
+        <v>531</v>
+      </c>
+      <c r="L61" t="s">
+        <v>532</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>533</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>534</v>
+      </c>
+      <c r="X61" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33693</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>537</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>538</v>
+      </c>
+      <c r="J62" t="s">
+        <v>539</v>
+      </c>
+      <c r="K62" t="s">
+        <v>540</v>
+      </c>
+      <c r="L62" t="s">
+        <v>541</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>542</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33693</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>544</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>545</v>
+      </c>
+      <c r="J63" t="s">
+        <v>546</v>
+      </c>
+      <c r="K63" t="s">
+        <v>547</v>
+      </c>
+      <c r="L63" t="s">
+        <v>548</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>549</v>
+      </c>
+      <c r="O63" t="s">
+        <v>172</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>550</v>
+      </c>
+      <c r="X63" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33693</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>553</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>554</v>
+      </c>
+      <c r="J64" t="s">
+        <v>555</v>
+      </c>
+      <c r="K64" t="s">
+        <v>556</v>
+      </c>
+      <c r="L64" t="s">
+        <v>557</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>558</v>
+      </c>
+      <c r="O64" t="s">
+        <v>172</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
